--- a/raw_data/20200818_saline/20200818_Sensor0_Test_57.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor0_Test_57.xlsx
@@ -1,568 +1,984 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF45BAE3-982D-443C-9C6B-2C4A2F9F6431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>50403.202814</v>
+        <v>50403.202813999997</v>
       </c>
       <c r="B2" s="1">
-        <v>14.000890</v>
+        <v>14.00089</v>
       </c>
       <c r="C2" s="1">
-        <v>904.882000</v>
+        <v>904.88199999999995</v>
       </c>
       <c r="D2" s="1">
-        <v>-193.141000</v>
+        <v>-193.14099999999999</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>50413.053361</v>
+        <v>50413.053360999998</v>
       </c>
       <c r="G2" s="1">
-        <v>14.003626</v>
+        <v>14.003626000000001</v>
       </c>
       <c r="H2" s="1">
-        <v>921.579000</v>
+        <v>921.57899999999995</v>
       </c>
       <c r="I2" s="1">
-        <v>-163.920000</v>
+        <v>-163.92</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>50423.217875</v>
+        <v>50423.217875000002</v>
       </c>
       <c r="L2" s="1">
         <v>14.006449</v>
       </c>
       <c r="M2" s="1">
-        <v>943.443000</v>
+        <v>943.44299999999998</v>
       </c>
       <c r="N2" s="1">
-        <v>-118.135000</v>
+        <v>-118.13500000000001</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>50433.361596</v>
+        <v>50433.361596000002</v>
       </c>
       <c r="Q2" s="1">
-        <v>14.009267</v>
+        <v>14.009266999999999</v>
       </c>
       <c r="R2" s="1">
-        <v>950.016000</v>
+        <v>950.01599999999996</v>
       </c>
       <c r="S2" s="1">
-        <v>-103.093000</v>
+        <v>-103.093</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>50443.627791</v>
+        <v>50443.627790999999</v>
       </c>
       <c r="V2" s="1">
         <v>14.012119</v>
       </c>
       <c r="W2" s="1">
-        <v>956.625000</v>
+        <v>956.625</v>
       </c>
       <c r="X2" s="1">
-        <v>-89.683200</v>
+        <v>-89.683199999999999</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>50453.734236</v>
+        <v>50453.734235999997</v>
       </c>
       <c r="AA2" s="1">
-        <v>14.014926</v>
+        <v>14.014926000000001</v>
       </c>
       <c r="AB2" s="1">
-        <v>963.920000</v>
+        <v>963.92</v>
       </c>
       <c r="AC2" s="1">
-        <v>-80.420900</v>
+        <v>-80.420900000000003</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
         <v>50463.939949</v>
@@ -571,285 +987,285 @@
         <v>14.017761</v>
       </c>
       <c r="AG2" s="1">
-        <v>968.910000</v>
+        <v>968.91</v>
       </c>
       <c r="AH2" s="1">
-        <v>-80.127100</v>
+        <v>-80.127099999999999</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>50474.375249</v>
+        <v>50474.375248999997</v>
       </c>
       <c r="AK2" s="1">
-        <v>14.020660</v>
+        <v>14.020659999999999</v>
       </c>
       <c r="AL2" s="1">
-        <v>976.848000</v>
+        <v>976.84799999999996</v>
       </c>
       <c r="AM2" s="1">
-        <v>-88.087100</v>
+        <v>-88.087100000000007</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>50484.658338</v>
+        <v>50484.658338000001</v>
       </c>
       <c r="AP2" s="1">
-        <v>14.023516</v>
+        <v>14.023516000000001</v>
       </c>
       <c r="AQ2" s="1">
-        <v>986.103000</v>
+        <v>986.10299999999995</v>
       </c>
       <c r="AR2" s="1">
-        <v>-103.247000</v>
+        <v>-103.247</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>50495.642211</v>
+        <v>50495.642210999998</v>
       </c>
       <c r="AU2" s="1">
         <v>14.026567</v>
       </c>
       <c r="AV2" s="1">
-        <v>997.570000</v>
+        <v>997.57</v>
       </c>
       <c r="AW2" s="1">
-        <v>-124.992000</v>
+        <v>-124.992</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>50506.756565</v>
+        <v>50506.756565000003</v>
       </c>
       <c r="AZ2" s="1">
         <v>14.029655</v>
       </c>
       <c r="BA2" s="1">
-        <v>1007.300000</v>
+        <v>1007.3</v>
       </c>
       <c r="BB2" s="1">
-        <v>-143.901000</v>
+        <v>-143.90100000000001</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>50517.670038</v>
+        <v>50517.670037999997</v>
       </c>
       <c r="BE2" s="1">
         <v>14.032686</v>
       </c>
       <c r="BF2" s="1">
-        <v>1053.020000</v>
+        <v>1053.02</v>
       </c>
       <c r="BG2" s="1">
-        <v>-229.304000</v>
+        <v>-229.304</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>50529.065128</v>
+        <v>50529.065128000002</v>
       </c>
       <c r="BJ2" s="1">
-        <v>14.035851</v>
+        <v>14.035850999999999</v>
       </c>
       <c r="BK2" s="1">
-        <v>1133.010000</v>
+        <v>1133.01</v>
       </c>
       <c r="BL2" s="1">
-        <v>-366.191000</v>
+        <v>-366.19099999999997</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>50540.514280</v>
+        <v>50540.514280000003</v>
       </c>
       <c r="BO2" s="1">
-        <v>14.039032</v>
+        <v>14.039032000000001</v>
       </c>
       <c r="BP2" s="1">
-        <v>1265.090000</v>
+        <v>1265.0899999999999</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-577.705000</v>
+        <v>-577.70500000000004</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>50550.852395</v>
+        <v>50550.852395000002</v>
       </c>
       <c r="BT2" s="1">
         <v>14.041903</v>
       </c>
       <c r="BU2" s="1">
-        <v>1413.530000</v>
+        <v>1413.53</v>
       </c>
       <c r="BV2" s="1">
-        <v>-804.323000</v>
+        <v>-804.32299999999998</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>50561.500013</v>
+        <v>50561.500012999997</v>
       </c>
       <c r="BY2" s="1">
-        <v>14.044861</v>
+        <v>14.044860999999999</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1575.990000</v>
+        <v>1575.99</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1040.160000</v>
+        <v>-1040.1600000000001</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>50572.445737</v>
+        <v>50572.445737000002</v>
       </c>
       <c r="CD2" s="1">
-        <v>14.047902</v>
+        <v>14.047902000000001</v>
       </c>
       <c r="CE2" s="1">
-        <v>1986.610000</v>
+        <v>1986.61</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1592.070000</v>
+        <v>-1592.07</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>50403.316398</v>
+        <v>50403.316398000003</v>
       </c>
       <c r="B3" s="1">
         <v>14.000921</v>
       </c>
       <c r="C3" s="1">
-        <v>904.841000</v>
+        <v>904.84100000000001</v>
       </c>
       <c r="D3" s="1">
-        <v>-193.272000</v>
+        <v>-193.27199999999999</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>50413.403537</v>
+        <v>50413.403536999998</v>
       </c>
       <c r="G3" s="1">
-        <v>14.003723</v>
+        <v>14.003723000000001</v>
       </c>
       <c r="H3" s="1">
-        <v>921.446000</v>
+        <v>921.44600000000003</v>
       </c>
       <c r="I3" s="1">
-        <v>-163.559000</v>
+        <v>-163.559</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>50423.563621</v>
+        <v>50423.563621000001</v>
       </c>
       <c r="L3" s="1">
-        <v>14.006545</v>
+        <v>14.006544999999999</v>
       </c>
       <c r="M3" s="1">
-        <v>943.455000</v>
+        <v>943.45500000000004</v>
       </c>
       <c r="N3" s="1">
-        <v>-118.196000</v>
+        <v>-118.196</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>50433.750952</v>
+        <v>50433.750952000002</v>
       </c>
       <c r="Q3" s="1">
         <v>14.009375</v>
       </c>
       <c r="R3" s="1">
-        <v>950.086000</v>
+        <v>950.08600000000001</v>
       </c>
       <c r="S3" s="1">
-        <v>-103.101000</v>
+        <v>-103.101</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>50444.044933</v>
+        <v>50444.044932999997</v>
       </c>
       <c r="V3" s="1">
         <v>14.012235</v>
       </c>
       <c r="W3" s="1">
-        <v>956.590000</v>
+        <v>956.59</v>
       </c>
       <c r="X3" s="1">
-        <v>-89.663000</v>
+        <v>-89.662999999999997</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>50454.148394</v>
+        <v>50454.148394000003</v>
       </c>
       <c r="AA3" s="1">
         <v>14.015041</v>
       </c>
       <c r="AB3" s="1">
-        <v>963.850000</v>
+        <v>963.85</v>
       </c>
       <c r="AC3" s="1">
-        <v>-80.417800</v>
+        <v>-80.4178</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>50464.341182</v>
+        <v>50464.341181999996</v>
       </c>
       <c r="AF3" s="1">
         <v>14.017873</v>
       </c>
       <c r="AG3" s="1">
-        <v>968.829000</v>
+        <v>968.82899999999995</v>
       </c>
       <c r="AH3" s="1">
-        <v>-80.073500</v>
+        <v>-80.073499999999996</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>50474.484404</v>
+        <v>50474.484404000003</v>
       </c>
       <c r="AK3" s="1">
-        <v>14.020690</v>
+        <v>14.02069</v>
       </c>
       <c r="AL3" s="1">
-        <v>976.854000</v>
+        <v>976.85400000000004</v>
       </c>
       <c r="AM3" s="1">
-        <v>-88.095300</v>
+        <v>-88.095299999999995</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
         <v>50485.038771</v>
@@ -858,195 +1274,195 @@
         <v>14.023622</v>
       </c>
       <c r="AQ3" s="1">
-        <v>986.111000</v>
+        <v>986.11099999999999</v>
       </c>
       <c r="AR3" s="1">
-        <v>-103.246000</v>
+        <v>-103.246</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>50496.025155</v>
+        <v>50496.025155000003</v>
       </c>
       <c r="AU3" s="1">
         <v>14.026674</v>
       </c>
       <c r="AV3" s="1">
-        <v>997.581000</v>
+        <v>997.58100000000002</v>
       </c>
       <c r="AW3" s="1">
-        <v>-125.002000</v>
+        <v>-125.002</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>50507.119140</v>
+        <v>50507.119140000003</v>
       </c>
       <c r="AZ3" s="1">
         <v>14.029755</v>
       </c>
       <c r="BA3" s="1">
-        <v>1007.300000</v>
+        <v>1007.3</v>
       </c>
       <c r="BB3" s="1">
-        <v>-143.909000</v>
+        <v>-143.90899999999999</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>50518.393238</v>
+        <v>50518.393237999997</v>
       </c>
       <c r="BE3" s="1">
-        <v>14.032887</v>
+        <v>14.032887000000001</v>
       </c>
       <c r="BF3" s="1">
-        <v>1052.990000</v>
+        <v>1052.99</v>
       </c>
       <c r="BG3" s="1">
-        <v>-229.332000</v>
+        <v>-229.33199999999999</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>50529.452541</v>
+        <v>50529.452540999999</v>
       </c>
       <c r="BJ3" s="1">
         <v>14.035959</v>
       </c>
       <c r="BK3" s="1">
-        <v>1133.030000</v>
+        <v>1133.03</v>
       </c>
       <c r="BL3" s="1">
-        <v>-366.163000</v>
+        <v>-366.16300000000001</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>50540.925992</v>
+        <v>50540.925991999997</v>
       </c>
       <c r="BO3" s="1">
-        <v>14.039146</v>
+        <v>14.039146000000001</v>
       </c>
       <c r="BP3" s="1">
-        <v>1265.100000</v>
+        <v>1265.0999999999999</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-577.720000</v>
+        <v>-577.72</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>50551.270028</v>
+        <v>50551.270027999999</v>
       </c>
       <c r="BT3" s="1">
         <v>14.042019</v>
       </c>
       <c r="BU3" s="1">
-        <v>1413.650000</v>
+        <v>1413.65</v>
       </c>
       <c r="BV3" s="1">
-        <v>-804.211000</v>
+        <v>-804.21100000000001</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
         <v>50561.961292</v>
       </c>
       <c r="BY3" s="1">
-        <v>14.044989</v>
+        <v>14.044988999999999</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1575.820000</v>
+        <v>1575.82</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1040.180000</v>
+        <v>-1040.18</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
         <v>50573.342525</v>
       </c>
       <c r="CD3" s="1">
-        <v>14.048151</v>
+        <v>14.048151000000001</v>
       </c>
       <c r="CE3" s="1">
-        <v>1987.720000</v>
+        <v>1987.72</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1592.070000</v>
+        <v>-1592.07</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>50403.643789</v>
+        <v>50403.643789000002</v>
       </c>
       <c r="B4" s="1">
-        <v>14.001012</v>
+        <v>14.001011999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>904.962000</v>
+        <v>904.96199999999999</v>
       </c>
       <c r="D4" s="1">
-        <v>-193.145000</v>
+        <v>-193.14500000000001</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>50413.746804</v>
+        <v>50413.746804000002</v>
       </c>
       <c r="G4" s="1">
         <v>14.003819</v>
       </c>
       <c r="H4" s="1">
-        <v>921.276000</v>
+        <v>921.27599999999995</v>
       </c>
       <c r="I4" s="1">
-        <v>-164.189000</v>
+        <v>-164.18899999999999</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>50423.910787</v>
+        <v>50423.910787000001</v>
       </c>
       <c r="L4" s="1">
-        <v>14.006642</v>
+        <v>14.006641999999999</v>
       </c>
       <c r="M4" s="1">
-        <v>943.630000</v>
+        <v>943.63</v>
       </c>
       <c r="N4" s="1">
-        <v>-118.245000</v>
+        <v>-118.245</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>50434.165077</v>
+        <v>50434.165076999998</v>
       </c>
       <c r="Q4" s="1">
-        <v>14.009490</v>
+        <v>14.00949</v>
       </c>
       <c r="R4" s="1">
-        <v>950.062000</v>
+        <v>950.06200000000001</v>
       </c>
       <c r="S4" s="1">
-        <v>-103.126000</v>
+        <v>-103.126</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
         <v>50444.519063</v>
@@ -1055,405 +1471,405 @@
         <v>14.012366</v>
       </c>
       <c r="W4" s="1">
-        <v>956.590000</v>
+        <v>956.59</v>
       </c>
       <c r="X4" s="1">
-        <v>-89.664900</v>
+        <v>-89.664900000000003</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>50454.467323</v>
+        <v>50454.467322999997</v>
       </c>
       <c r="AA4" s="1">
-        <v>14.015130</v>
+        <v>14.015129999999999</v>
       </c>
       <c r="AB4" s="1">
-        <v>963.881000</v>
+        <v>963.88099999999997</v>
       </c>
       <c r="AC4" s="1">
-        <v>-80.458400</v>
+        <v>-80.458399999999997</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>50464.683422</v>
+        <v>50464.683422000002</v>
       </c>
       <c r="AF4" s="1">
         <v>14.017968</v>
       </c>
       <c r="AG4" s="1">
-        <v>968.816000</v>
+        <v>968.81600000000003</v>
       </c>
       <c r="AH4" s="1">
-        <v>-80.130500</v>
+        <v>-80.130499999999998</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>50474.827103</v>
+        <v>50474.827103000003</v>
       </c>
       <c r="AK4" s="1">
         <v>14.020785</v>
       </c>
       <c r="AL4" s="1">
-        <v>976.828000</v>
+        <v>976.82799999999997</v>
       </c>
       <c r="AM4" s="1">
-        <v>-88.089800</v>
+        <v>-88.089799999999997</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>50485.399827</v>
+        <v>50485.399827000001</v>
       </c>
       <c r="AP4" s="1">
-        <v>14.023722</v>
+        <v>14.023721999999999</v>
       </c>
       <c r="AQ4" s="1">
-        <v>986.089000</v>
+        <v>986.08900000000006</v>
       </c>
       <c r="AR4" s="1">
-        <v>-103.239000</v>
+        <v>-103.239</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>50496.756722</v>
+        <v>50496.756721999998</v>
       </c>
       <c r="AU4" s="1">
-        <v>14.026877</v>
+        <v>14.026877000000001</v>
       </c>
       <c r="AV4" s="1">
-        <v>997.598000</v>
+        <v>997.59799999999996</v>
       </c>
       <c r="AW4" s="1">
-        <v>-124.996000</v>
+        <v>-124.996</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
         <v>50507.836356</v>
       </c>
       <c r="AZ4" s="1">
-        <v>14.029955</v>
+        <v>14.029954999999999</v>
       </c>
       <c r="BA4" s="1">
-        <v>1007.280000</v>
+        <v>1007.28</v>
       </c>
       <c r="BB4" s="1">
-        <v>-143.917000</v>
+        <v>-143.917</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>50518.753829</v>
+        <v>50518.753829000001</v>
       </c>
       <c r="BE4" s="1">
         <v>14.032987</v>
       </c>
       <c r="BF4" s="1">
-        <v>1053.040000</v>
+        <v>1053.04</v>
       </c>
       <c r="BG4" s="1">
-        <v>-229.328000</v>
+        <v>-229.328</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>50529.841895</v>
+        <v>50529.841894999998</v>
       </c>
       <c r="BJ4" s="1">
-        <v>14.036067</v>
+        <v>14.036066999999999</v>
       </c>
       <c r="BK4" s="1">
-        <v>1132.990000</v>
+        <v>1132.99</v>
       </c>
       <c r="BL4" s="1">
-        <v>-366.163000</v>
+        <v>-366.16300000000001</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>50541.332715</v>
+        <v>50541.332714999997</v>
       </c>
       <c r="BO4" s="1">
-        <v>14.039259</v>
+        <v>14.039258999999999</v>
       </c>
       <c r="BP4" s="1">
-        <v>1265.090000</v>
+        <v>1265.0899999999999</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-577.717000</v>
+        <v>-577.71699999999998</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
         <v>50551.991705</v>
       </c>
       <c r="BT4" s="1">
-        <v>14.042220</v>
+        <v>14.04222</v>
       </c>
       <c r="BU4" s="1">
-        <v>1413.660000</v>
+        <v>1413.66</v>
       </c>
       <c r="BV4" s="1">
-        <v>-804.026000</v>
+        <v>-804.02599999999995</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>50562.718225</v>
+        <v>50562.718224999997</v>
       </c>
       <c r="BY4" s="1">
-        <v>14.045200</v>
+        <v>14.045199999999999</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1575.900000</v>
+        <v>1575.9</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1040.300000</v>
+        <v>-1040.3</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>50573.576606</v>
+        <v>50573.576606000002</v>
       </c>
       <c r="CD4" s="1">
         <v>14.048216</v>
       </c>
       <c r="CE4" s="1">
-        <v>1988.070000</v>
+        <v>1988.07</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1591.950000</v>
+        <v>-1591.95</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>50403.986990</v>
+        <v>50403.986989999998</v>
       </c>
       <c r="B5" s="1">
-        <v>14.001107</v>
+        <v>14.001106999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>904.902000</v>
+        <v>904.90200000000004</v>
       </c>
       <c r="D5" s="1">
-        <v>-193.146000</v>
+        <v>-193.14599999999999</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
         <v>50414.163449</v>
       </c>
       <c r="G5" s="1">
-        <v>14.003934</v>
+        <v>14.003933999999999</v>
       </c>
       <c r="H5" s="1">
-        <v>921.637000</v>
+        <v>921.63699999999994</v>
       </c>
       <c r="I5" s="1">
-        <v>-163.651000</v>
+        <v>-163.65100000000001</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>50424.331394</v>
+        <v>50424.331394000001</v>
       </c>
       <c r="L5" s="1">
-        <v>14.006759</v>
+        <v>14.006759000000001</v>
       </c>
       <c r="M5" s="1">
-        <v>943.491000</v>
+        <v>943.49099999999999</v>
       </c>
       <c r="N5" s="1">
-        <v>-118.065000</v>
+        <v>-118.065</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>50434.466685</v>
+        <v>50434.466684999999</v>
       </c>
       <c r="Q5" s="1">
-        <v>14.009574</v>
+        <v>14.009574000000001</v>
       </c>
       <c r="R5" s="1">
-        <v>950.026000</v>
+        <v>950.02599999999995</v>
       </c>
       <c r="S5" s="1">
-        <v>-103.175000</v>
+        <v>-103.175</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>50444.694647</v>
+        <v>50444.694646999997</v>
       </c>
       <c r="V5" s="1">
-        <v>14.012415</v>
+        <v>14.012415000000001</v>
       </c>
       <c r="W5" s="1">
-        <v>956.515000</v>
+        <v>956.51499999999999</v>
       </c>
       <c r="X5" s="1">
-        <v>-89.671300</v>
+        <v>-89.671300000000002</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>50454.817497</v>
+        <v>50454.817496999996</v>
       </c>
       <c r="AA5" s="1">
-        <v>14.015227</v>
+        <v>14.015226999999999</v>
       </c>
       <c r="AB5" s="1">
-        <v>963.917000</v>
+        <v>963.91700000000003</v>
       </c>
       <c r="AC5" s="1">
-        <v>-80.449500</v>
+        <v>-80.4495</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>50465.022719</v>
+        <v>50465.022719000001</v>
       </c>
       <c r="AF5" s="1">
         <v>14.018062</v>
       </c>
       <c r="AG5" s="1">
-        <v>968.850000</v>
+        <v>968.85</v>
       </c>
       <c r="AH5" s="1">
-        <v>-80.195200</v>
+        <v>-80.1952</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>50475.172814</v>
+        <v>50475.172813999998</v>
       </c>
       <c r="AK5" s="1">
-        <v>14.020881</v>
+        <v>14.020880999999999</v>
       </c>
       <c r="AL5" s="1">
-        <v>976.820000</v>
+        <v>976.82</v>
       </c>
       <c r="AM5" s="1">
-        <v>-88.089100</v>
+        <v>-88.089100000000002</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>50486.129946</v>
+        <v>50486.129946000001</v>
       </c>
       <c r="AP5" s="1">
         <v>14.023925</v>
       </c>
       <c r="AQ5" s="1">
-        <v>986.093000</v>
+        <v>986.09299999999996</v>
       </c>
       <c r="AR5" s="1">
-        <v>-103.234000</v>
+        <v>-103.23399999999999</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>50497.117811</v>
+        <v>50497.117810999996</v>
       </c>
       <c r="AU5" s="1">
         <v>14.026977</v>
       </c>
       <c r="AV5" s="1">
-        <v>997.592000</v>
+        <v>997.59199999999998</v>
       </c>
       <c r="AW5" s="1">
-        <v>-125.012000</v>
+        <v>-125.012</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>50508.194003</v>
+        <v>50508.194002999997</v>
       </c>
       <c r="AZ5" s="1">
         <v>14.030054</v>
       </c>
       <c r="BA5" s="1">
-        <v>1007.290000</v>
+        <v>1007.29</v>
       </c>
       <c r="BB5" s="1">
-        <v>-143.903000</v>
+        <v>-143.90299999999999</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>50519.114885</v>
+        <v>50519.114885000003</v>
       </c>
       <c r="BE5" s="1">
         <v>14.033087</v>
       </c>
       <c r="BF5" s="1">
-        <v>1053.010000</v>
+        <v>1053.01</v>
       </c>
       <c r="BG5" s="1">
-        <v>-229.327000</v>
+        <v>-229.327</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>50530.519926</v>
+        <v>50530.519926000001</v>
       </c>
       <c r="BJ5" s="1">
         <v>14.036256</v>
       </c>
       <c r="BK5" s="1">
-        <v>1133.020000</v>
+        <v>1133.02</v>
       </c>
       <c r="BL5" s="1">
-        <v>-366.214000</v>
+        <v>-366.214</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>50542.037494</v>
+        <v>50542.037493999997</v>
       </c>
       <c r="BO5" s="1">
         <v>14.039455</v>
       </c>
       <c r="BP5" s="1">
-        <v>1265.070000</v>
+        <v>1265.07</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-577.712000</v>
+        <v>-577.71199999999999</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
         <v>50552.105786</v>
@@ -1462,75 +1878,75 @@
         <v>14.042252</v>
       </c>
       <c r="BU5" s="1">
-        <v>1413.710000</v>
+        <v>1413.71</v>
       </c>
       <c r="BV5" s="1">
-        <v>-803.879000</v>
+        <v>-803.87900000000002</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>50562.899227</v>
+        <v>50562.899227000002</v>
       </c>
       <c r="BY5" s="1">
-        <v>14.045250</v>
+        <v>14.045249999999999</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1576.000000</v>
+        <v>1576</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1040.170000</v>
+        <v>-1040.17</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>50574.096910</v>
+        <v>50574.09691</v>
       </c>
       <c r="CD5" s="1">
-        <v>14.048360</v>
+        <v>14.048360000000001</v>
       </c>
       <c r="CE5" s="1">
-        <v>1986.420000</v>
+        <v>1986.42</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1592.560000</v>
+        <v>-1592.56</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>50404.407597</v>
+        <v>50404.407596999998</v>
       </c>
       <c r="B6" s="1">
-        <v>14.001224</v>
+        <v>14.001224000000001</v>
       </c>
       <c r="C6" s="1">
-        <v>904.920000</v>
+        <v>904.92</v>
       </c>
       <c r="D6" s="1">
-        <v>-193.061000</v>
+        <v>-193.06100000000001</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>50414.443151</v>
+        <v>50414.443150999999</v>
       </c>
       <c r="G6" s="1">
-        <v>14.004012</v>
+        <v>14.004011999999999</v>
       </c>
       <c r="H6" s="1">
-        <v>921.326000</v>
+        <v>921.32600000000002</v>
       </c>
       <c r="I6" s="1">
-        <v>-164.151000</v>
+        <v>-164.15100000000001</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
         <v>50424.626052</v>
@@ -1539,483 +1955,483 @@
         <v>14.006841</v>
       </c>
       <c r="M6" s="1">
-        <v>943.438000</v>
+        <v>943.43799999999999</v>
       </c>
       <c r="N6" s="1">
-        <v>-118.057000</v>
+        <v>-118.057</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>50434.813845</v>
+        <v>50434.813844999997</v>
       </c>
       <c r="Q6" s="1">
-        <v>14.009671</v>
+        <v>14.009671000000001</v>
       </c>
       <c r="R6" s="1">
-        <v>950.006000</v>
+        <v>950.00599999999997</v>
       </c>
       <c r="S6" s="1">
-        <v>-103.154000</v>
+        <v>-103.154</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>50445.038375</v>
+        <v>50445.038374999996</v>
       </c>
       <c r="V6" s="1">
         <v>14.012511</v>
       </c>
       <c r="W6" s="1">
-        <v>956.516000</v>
+        <v>956.51599999999996</v>
       </c>
       <c r="X6" s="1">
-        <v>-89.658500</v>
+        <v>-89.658500000000004</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>50455.169161</v>
+        <v>50455.169160999998</v>
       </c>
       <c r="AA6" s="1">
-        <v>14.015325</v>
+        <v>14.015325000000001</v>
       </c>
       <c r="AB6" s="1">
-        <v>963.892000</v>
+        <v>963.89200000000005</v>
       </c>
       <c r="AC6" s="1">
-        <v>-80.404400</v>
+        <v>-80.404399999999995</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>50465.712155</v>
+        <v>50465.712155000001</v>
       </c>
       <c r="AF6" s="1">
         <v>14.018253</v>
       </c>
       <c r="AG6" s="1">
-        <v>968.862000</v>
+        <v>968.86199999999997</v>
       </c>
       <c r="AH6" s="1">
-        <v>-80.049200</v>
+        <v>-80.049199999999999</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>50475.873166</v>
+        <v>50475.873165999998</v>
       </c>
       <c r="AK6" s="1">
-        <v>14.021076</v>
+        <v>14.021076000000001</v>
       </c>
       <c r="AL6" s="1">
-        <v>976.834000</v>
+        <v>976.83399999999995</v>
       </c>
       <c r="AM6" s="1">
-        <v>-88.080000</v>
+        <v>-88.08</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>50486.506895</v>
+        <v>50486.506894999999</v>
       </c>
       <c r="AP6" s="1">
-        <v>14.024030</v>
+        <v>14.02403</v>
       </c>
       <c r="AQ6" s="1">
-        <v>986.098000</v>
+        <v>986.09799999999996</v>
       </c>
       <c r="AR6" s="1">
-        <v>-103.244000</v>
+        <v>-103.244</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>50497.484850</v>
+        <v>50497.484850000001</v>
       </c>
       <c r="AU6" s="1">
-        <v>14.027079</v>
+        <v>14.027079000000001</v>
       </c>
       <c r="AV6" s="1">
-        <v>997.618000</v>
+        <v>997.61800000000005</v>
       </c>
       <c r="AW6" s="1">
-        <v>-125.014000</v>
+        <v>-125.014</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>50508.554564</v>
+        <v>50508.554563999998</v>
       </c>
       <c r="AZ6" s="1">
         <v>14.030154</v>
       </c>
       <c r="BA6" s="1">
-        <v>1007.300000</v>
+        <v>1007.3</v>
       </c>
       <c r="BB6" s="1">
-        <v>-143.911000</v>
+        <v>-143.911</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>50519.784485</v>
+        <v>50519.784484999996</v>
       </c>
       <c r="BE6" s="1">
-        <v>14.033273</v>
+        <v>14.033272999999999</v>
       </c>
       <c r="BF6" s="1">
-        <v>1053.000000</v>
+        <v>1053</v>
       </c>
       <c r="BG6" s="1">
-        <v>-229.334000</v>
+        <v>-229.334</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>50530.999538</v>
+        <v>50530.999537999996</v>
       </c>
       <c r="BJ6" s="1">
         <v>14.036389</v>
       </c>
       <c r="BK6" s="1">
-        <v>1133.010000</v>
+        <v>1133.01</v>
       </c>
       <c r="BL6" s="1">
-        <v>-366.174000</v>
+        <v>-366.17399999999998</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>50542.168438</v>
+        <v>50542.168438000001</v>
       </c>
       <c r="BO6" s="1">
         <v>14.039491</v>
       </c>
       <c r="BP6" s="1">
-        <v>1265.040000</v>
+        <v>1265.04</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-577.744000</v>
+        <v>-577.74400000000003</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>50552.541800</v>
+        <v>50552.541799999999</v>
       </c>
       <c r="BT6" s="1">
         <v>14.042373</v>
       </c>
       <c r="BU6" s="1">
-        <v>1413.740000</v>
+        <v>1413.74</v>
       </c>
       <c r="BV6" s="1">
-        <v>-803.801000</v>
+        <v>-803.80100000000004</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>50563.284618</v>
+        <v>50563.284617999998</v>
       </c>
       <c r="BY6" s="1">
-        <v>14.045357</v>
+        <v>14.045356999999999</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1576.000000</v>
+        <v>1576</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1040.230000</v>
+        <v>-1040.23</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
         <v>50574.613244</v>
       </c>
       <c r="CD6" s="1">
-        <v>14.048504</v>
+        <v>14.048503999999999</v>
       </c>
       <c r="CE6" s="1">
-        <v>1987.450000</v>
+        <v>1987.45</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1593.890000</v>
+        <v>-1593.89</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
         <v>50404.680924</v>
       </c>
       <c r="B7" s="1">
-        <v>14.001300</v>
+        <v>14.001300000000001</v>
       </c>
       <c r="C7" s="1">
-        <v>905.015000</v>
+        <v>905.01499999999999</v>
       </c>
       <c r="D7" s="1">
-        <v>-193.134000</v>
+        <v>-193.13399999999999</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>50414.788370</v>
+        <v>50414.788370000002</v>
       </c>
       <c r="G7" s="1">
         <v>14.004108</v>
       </c>
       <c r="H7" s="1">
-        <v>921.780000</v>
+        <v>921.78</v>
       </c>
       <c r="I7" s="1">
-        <v>-163.956000</v>
+        <v>-163.95599999999999</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>50424.969251</v>
+        <v>50424.969251000002</v>
       </c>
       <c r="L7" s="1">
         <v>14.006936</v>
       </c>
       <c r="M7" s="1">
-        <v>943.485000</v>
+        <v>943.48500000000001</v>
       </c>
       <c r="N7" s="1">
-        <v>-118.117000</v>
+        <v>-118.117</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>50435.165012</v>
+        <v>50435.165011999998</v>
       </c>
       <c r="Q7" s="1">
-        <v>14.009768</v>
+        <v>14.009767999999999</v>
       </c>
       <c r="R7" s="1">
-        <v>950.037000</v>
+        <v>950.03700000000003</v>
       </c>
       <c r="S7" s="1">
-        <v>-103.116000</v>
+        <v>-103.116</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>50445.728806</v>
+        <v>50445.728805999999</v>
       </c>
       <c r="V7" s="1">
-        <v>14.012702</v>
+        <v>14.012702000000001</v>
       </c>
       <c r="W7" s="1">
-        <v>956.558000</v>
+        <v>956.55799999999999</v>
       </c>
       <c r="X7" s="1">
-        <v>-89.657400</v>
+        <v>-89.657399999999996</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>50455.861080</v>
+        <v>50455.861080000002</v>
       </c>
       <c r="AA7" s="1">
-        <v>14.015517</v>
+        <v>14.015516999999999</v>
       </c>
       <c r="AB7" s="1">
-        <v>963.831000</v>
+        <v>963.83100000000002</v>
       </c>
       <c r="AC7" s="1">
-        <v>-80.389400</v>
+        <v>-80.389399999999995</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
         <v>50466.055387</v>
       </c>
       <c r="AF7" s="1">
-        <v>14.018349</v>
+        <v>14.018349000000001</v>
       </c>
       <c r="AG7" s="1">
-        <v>968.966000</v>
+        <v>968.96600000000001</v>
       </c>
       <c r="AH7" s="1">
-        <v>-80.089600</v>
+        <v>-80.089600000000004</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>50476.221890</v>
+        <v>50476.221890000001</v>
       </c>
       <c r="AK7" s="1">
-        <v>14.021173</v>
+        <v>14.021172999999999</v>
       </c>
       <c r="AL7" s="1">
-        <v>976.851000</v>
+        <v>976.851</v>
       </c>
       <c r="AM7" s="1">
-        <v>-88.093200</v>
+        <v>-88.093199999999996</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>50486.867526</v>
+        <v>50486.867526000002</v>
       </c>
       <c r="AP7" s="1">
-        <v>14.024130</v>
+        <v>14.02413</v>
       </c>
       <c r="AQ7" s="1">
-        <v>986.099000</v>
+        <v>986.09900000000005</v>
       </c>
       <c r="AR7" s="1">
-        <v>-103.242000</v>
+        <v>-103.242</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>50498.157457</v>
+        <v>50498.157457000001</v>
       </c>
       <c r="AU7" s="1">
-        <v>14.027266</v>
+        <v>14.027265999999999</v>
       </c>
       <c r="AV7" s="1">
-        <v>997.578000</v>
+        <v>997.57799999999997</v>
       </c>
       <c r="AW7" s="1">
-        <v>-125.001000</v>
+        <v>-125.001</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>50509.226147</v>
+        <v>50509.226147000001</v>
       </c>
       <c r="AZ7" s="1">
         <v>14.030341</v>
       </c>
       <c r="BA7" s="1">
-        <v>1007.310000</v>
+        <v>1007.31</v>
       </c>
       <c r="BB7" s="1">
-        <v>-143.897000</v>
+        <v>-143.89699999999999</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>50520.230388</v>
+        <v>50520.230388000004</v>
       </c>
       <c r="BE7" s="1">
-        <v>14.033397</v>
+        <v>14.033397000000001</v>
       </c>
       <c r="BF7" s="1">
-        <v>1053.000000</v>
+        <v>1053</v>
       </c>
       <c r="BG7" s="1">
-        <v>-229.324000</v>
+        <v>-229.32400000000001</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>50531.374004</v>
+        <v>50531.374003999998</v>
       </c>
       <c r="BJ7" s="1">
         <v>14.036493</v>
       </c>
       <c r="BK7" s="1">
-        <v>1132.990000</v>
+        <v>1132.99</v>
       </c>
       <c r="BL7" s="1">
-        <v>-366.175000</v>
+        <v>-366.17500000000001</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>50542.577872</v>
+        <v>50542.577872000002</v>
       </c>
       <c r="BO7" s="1">
         <v>14.039605</v>
       </c>
       <c r="BP7" s="1">
-        <v>1265.080000</v>
+        <v>1265.08</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-577.772000</v>
+        <v>-577.77200000000005</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>50552.953944</v>
+        <v>50552.953944000001</v>
       </c>
       <c r="BT7" s="1">
-        <v>14.042487</v>
+        <v>14.042486999999999</v>
       </c>
       <c r="BU7" s="1">
-        <v>1413.550000</v>
+        <v>1413.55</v>
       </c>
       <c r="BV7" s="1">
-        <v>-803.672000</v>
+        <v>-803.67200000000003</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>50563.710187</v>
+        <v>50563.710186999997</v>
       </c>
       <c r="BY7" s="1">
         <v>14.045475</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1576.020000</v>
+        <v>1576.02</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1040.100000</v>
+        <v>-1040.0999999999999</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>50575.132556</v>
+        <v>50575.132555999997</v>
       </c>
       <c r="CD7" s="1">
         <v>14.048648</v>
       </c>
       <c r="CE7" s="1">
-        <v>1988.360000</v>
+        <v>1988.36</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1592.580000</v>
+        <v>-1592.58</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
         <v>50405.024157</v>
       </c>
@@ -2023,480 +2439,480 @@
         <v>14.001396</v>
       </c>
       <c r="C8" s="1">
-        <v>904.785000</v>
+        <v>904.78499999999997</v>
       </c>
       <c r="D8" s="1">
-        <v>-193.151000</v>
+        <v>-193.15100000000001</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>50415.132590</v>
+        <v>50415.132590000001</v>
       </c>
       <c r="G8" s="1">
         <v>14.004203</v>
       </c>
       <c r="H8" s="1">
-        <v>920.974000</v>
+        <v>920.97400000000005</v>
       </c>
       <c r="I8" s="1">
-        <v>-163.859000</v>
+        <v>-163.85900000000001</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>50425.312986</v>
+        <v>50425.312985999997</v>
       </c>
       <c r="L8" s="1">
         <v>14.007031</v>
       </c>
       <c r="M8" s="1">
-        <v>943.430000</v>
+        <v>943.43</v>
       </c>
       <c r="N8" s="1">
-        <v>-118.035000</v>
+        <v>-118.035</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>50435.861892</v>
+        <v>50435.861892000001</v>
       </c>
       <c r="Q8" s="1">
         <v>14.009962</v>
       </c>
       <c r="R8" s="1">
-        <v>950.030000</v>
+        <v>950.03</v>
       </c>
       <c r="S8" s="1">
-        <v>-103.112000</v>
+        <v>-103.11199999999999</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>50446.074022</v>
+        <v>50446.074022000001</v>
       </c>
       <c r="V8" s="1">
         <v>14.012798</v>
       </c>
       <c r="W8" s="1">
-        <v>956.457000</v>
+        <v>956.45699999999999</v>
       </c>
       <c r="X8" s="1">
-        <v>-89.591000</v>
+        <v>-89.590999999999994</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>50456.210760</v>
+        <v>50456.210760000002</v>
       </c>
       <c r="AA8" s="1">
-        <v>14.015614</v>
+        <v>14.015613999999999</v>
       </c>
       <c r="AB8" s="1">
-        <v>963.852000</v>
+        <v>963.85199999999998</v>
       </c>
       <c r="AC8" s="1">
-        <v>-80.359200</v>
+        <v>-80.359200000000001</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>50466.399580</v>
+        <v>50466.399579999998</v>
       </c>
       <c r="AF8" s="1">
-        <v>14.018444</v>
+        <v>14.018444000000001</v>
       </c>
       <c r="AG8" s="1">
-        <v>968.713000</v>
+        <v>968.71299999999997</v>
       </c>
       <c r="AH8" s="1">
-        <v>-80.348900</v>
+        <v>-80.3489</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>50476.570542</v>
+        <v>50476.570542000001</v>
       </c>
       <c r="AK8" s="1">
-        <v>14.021270</v>
+        <v>14.021269999999999</v>
       </c>
       <c r="AL8" s="1">
-        <v>976.821000</v>
+        <v>976.82100000000003</v>
       </c>
       <c r="AM8" s="1">
-        <v>-88.100100</v>
+        <v>-88.100099999999998</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>50487.538080</v>
+        <v>50487.538079999998</v>
       </c>
       <c r="AP8" s="1">
-        <v>14.024316</v>
+        <v>14.024316000000001</v>
       </c>
       <c r="AQ8" s="1">
-        <v>986.108000</v>
+        <v>986.10799999999995</v>
       </c>
       <c r="AR8" s="1">
-        <v>-103.233000</v>
+        <v>-103.233</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>50498.610767</v>
+        <v>50498.610766999998</v>
       </c>
       <c r="AU8" s="1">
-        <v>14.027392</v>
+        <v>14.027392000000001</v>
       </c>
       <c r="AV8" s="1">
-        <v>997.601000</v>
+        <v>997.601</v>
       </c>
       <c r="AW8" s="1">
-        <v>-125.022000</v>
+        <v>-125.02200000000001</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>50509.630882</v>
+        <v>50509.630881999998</v>
       </c>
       <c r="AZ8" s="1">
         <v>14.030453</v>
       </c>
       <c r="BA8" s="1">
-        <v>1007.310000</v>
+        <v>1007.31</v>
       </c>
       <c r="BB8" s="1">
-        <v>-143.915000</v>
+        <v>-143.91499999999999</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>50520.591508</v>
+        <v>50520.591507999998</v>
       </c>
       <c r="BE8" s="1">
         <v>14.033498</v>
       </c>
       <c r="BF8" s="1">
-        <v>1053.010000</v>
+        <v>1053.01</v>
       </c>
       <c r="BG8" s="1">
-        <v>-229.324000</v>
+        <v>-229.32400000000001</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>50531.755956</v>
+        <v>50531.755956000001</v>
       </c>
       <c r="BJ8" s="1">
-        <v>14.036599</v>
+        <v>14.036599000000001</v>
       </c>
       <c r="BK8" s="1">
-        <v>1133.000000</v>
+        <v>1133</v>
       </c>
       <c r="BL8" s="1">
-        <v>-366.178000</v>
+        <v>-366.178</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>50542.972981</v>
+        <v>50542.972980999999</v>
       </c>
       <c r="BO8" s="1">
-        <v>14.039715</v>
+        <v>14.039714999999999</v>
       </c>
       <c r="BP8" s="1">
-        <v>1265.070000</v>
+        <v>1265.07</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-577.755000</v>
+        <v>-577.755</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>50553.375059</v>
+        <v>50553.375058999998</v>
       </c>
       <c r="BT8" s="1">
-        <v>14.042604</v>
+        <v>14.042604000000001</v>
       </c>
       <c r="BU8" s="1">
-        <v>1413.430000</v>
+        <v>1413.43</v>
       </c>
       <c r="BV8" s="1">
-        <v>-803.585000</v>
+        <v>-803.58500000000004</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>50564.130826</v>
+        <v>50564.130826000001</v>
       </c>
       <c r="BY8" s="1">
-        <v>14.045592</v>
+        <v>14.045591999999999</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1575.980000</v>
+        <v>1575.98</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1040.400000</v>
+        <v>-1040.4000000000001</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>50575.649913</v>
+        <v>50575.649913000001</v>
       </c>
       <c r="CD8" s="1">
-        <v>14.048792</v>
+        <v>14.048792000000001</v>
       </c>
       <c r="CE8" s="1">
-        <v>1987.000000</v>
+        <v>1987</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1591.830000</v>
+        <v>-1591.83</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>50405.365868</v>
+        <v>50405.365868000001</v>
       </c>
       <c r="B9" s="1">
         <v>14.001491</v>
       </c>
       <c r="C9" s="1">
-        <v>904.876000</v>
+        <v>904.87599999999998</v>
       </c>
       <c r="D9" s="1">
-        <v>-193.130000</v>
+        <v>-193.13</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>50415.821565</v>
+        <v>50415.821564999998</v>
       </c>
       <c r="G9" s="1">
-        <v>14.004395</v>
+        <v>14.004395000000001</v>
       </c>
       <c r="H9" s="1">
-        <v>921.954000</v>
+        <v>921.95399999999995</v>
       </c>
       <c r="I9" s="1">
-        <v>-164.309000</v>
+        <v>-164.309</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>50426.008863</v>
+        <v>50426.008863000003</v>
       </c>
       <c r="L9" s="1">
         <v>14.007225</v>
       </c>
       <c r="M9" s="1">
-        <v>943.496000</v>
+        <v>943.49599999999998</v>
       </c>
       <c r="N9" s="1">
-        <v>-118.195000</v>
+        <v>-118.19499999999999</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>50436.206612</v>
+        <v>50436.206612000002</v>
       </c>
       <c r="Q9" s="1">
         <v>14.010057</v>
       </c>
       <c r="R9" s="1">
-        <v>950.056000</v>
+        <v>950.05600000000004</v>
       </c>
       <c r="S9" s="1">
-        <v>-103.087000</v>
+        <v>-103.087</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>50446.420724</v>
+        <v>50446.420724000003</v>
       </c>
       <c r="V9" s="1">
         <v>14.012895</v>
       </c>
       <c r="W9" s="1">
-        <v>956.519000</v>
+        <v>956.51900000000001</v>
       </c>
       <c r="X9" s="1">
-        <v>-89.699400</v>
+        <v>-89.699399999999997</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>50456.558986</v>
+        <v>50456.558985999996</v>
       </c>
       <c r="AA9" s="1">
         <v>14.015711</v>
       </c>
       <c r="AB9" s="1">
-        <v>963.920000</v>
+        <v>963.92</v>
       </c>
       <c r="AC9" s="1">
-        <v>-80.457200</v>
+        <v>-80.4572</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>50467.052346</v>
+        <v>50467.052345999997</v>
       </c>
       <c r="AF9" s="1">
-        <v>14.018626</v>
+        <v>14.018625999999999</v>
       </c>
       <c r="AG9" s="1">
-        <v>968.931000</v>
+        <v>968.93100000000004</v>
       </c>
       <c r="AH9" s="1">
-        <v>-80.065200</v>
+        <v>-80.065200000000004</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>50477.236174</v>
+        <v>50477.236173999998</v>
       </c>
       <c r="AK9" s="1">
         <v>14.021454</v>
       </c>
       <c r="AL9" s="1">
-        <v>976.826000</v>
+        <v>976.82600000000002</v>
       </c>
       <c r="AM9" s="1">
-        <v>-88.094800</v>
+        <v>-88.094800000000006</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>50487.946287</v>
+        <v>50487.946286999999</v>
       </c>
       <c r="AP9" s="1">
-        <v>14.024430</v>
+        <v>14.024430000000001</v>
       </c>
       <c r="AQ9" s="1">
-        <v>986.102000</v>
+        <v>986.10199999999998</v>
       </c>
       <c r="AR9" s="1">
-        <v>-103.214000</v>
+        <v>-103.214</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>50498.976815</v>
+        <v>50498.976815000002</v>
       </c>
       <c r="AU9" s="1">
-        <v>14.027494</v>
+        <v>14.027494000000001</v>
       </c>
       <c r="AV9" s="1">
-        <v>997.597000</v>
+        <v>997.59699999999998</v>
       </c>
       <c r="AW9" s="1">
-        <v>-125.009000</v>
+        <v>-125.009</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>50510.014785</v>
+        <v>50510.014784999999</v>
       </c>
       <c r="AZ9" s="1">
-        <v>14.030560</v>
+        <v>14.030559999999999</v>
       </c>
       <c r="BA9" s="1">
-        <v>1007.290000</v>
+        <v>1007.29</v>
       </c>
       <c r="BB9" s="1">
-        <v>-143.903000</v>
+        <v>-143.90299999999999</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>50520.950578</v>
+        <v>50520.950578000004</v>
       </c>
       <c r="BE9" s="1">
         <v>14.033597</v>
       </c>
       <c r="BF9" s="1">
-        <v>1052.990000</v>
+        <v>1052.99</v>
       </c>
       <c r="BG9" s="1">
-        <v>-229.333000</v>
+        <v>-229.333</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>50532.179543</v>
+        <v>50532.179542999998</v>
       </c>
       <c r="BJ9" s="1">
-        <v>14.036717</v>
+        <v>14.036716999999999</v>
       </c>
       <c r="BK9" s="1">
-        <v>1133.040000</v>
+        <v>1133.04</v>
       </c>
       <c r="BL9" s="1">
-        <v>-366.199000</v>
+        <v>-366.19900000000001</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>50543.394550</v>
+        <v>50543.394549999997</v>
       </c>
       <c r="BO9" s="1">
-        <v>14.039832</v>
+        <v>14.039832000000001</v>
       </c>
       <c r="BP9" s="1">
-        <v>1265.090000</v>
+        <v>1265.0899999999999</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-577.710000</v>
+        <v>-577.71</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>50553.805575</v>
+        <v>50553.805574999998</v>
       </c>
       <c r="BT9" s="1">
         <v>14.042724</v>
       </c>
       <c r="BU9" s="1">
-        <v>1413.150000</v>
+        <v>1413.15</v>
       </c>
       <c r="BV9" s="1">
-        <v>-803.661000</v>
+        <v>-803.66099999999994</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
         <v>50564.550937</v>
@@ -2505,559 +2921,559 @@
         <v>14.045709</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1575.890000</v>
+        <v>1575.89</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1040.370000</v>
+        <v>-1040.3699999999999</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>50576.169689</v>
+        <v>50576.169689000002</v>
       </c>
       <c r="CD9" s="1">
-        <v>14.048936</v>
+        <v>14.048935999999999</v>
       </c>
       <c r="CE9" s="1">
-        <v>1986.670000</v>
+        <v>1986.67</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1593.220000</v>
+        <v>-1593.22</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>50406.049850</v>
+        <v>50406.049850000003</v>
       </c>
       <c r="B10" s="1">
         <v>14.001681</v>
       </c>
       <c r="C10" s="1">
-        <v>904.920000</v>
+        <v>904.92</v>
       </c>
       <c r="D10" s="1">
-        <v>-193.167000</v>
+        <v>-193.167</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>50416.167777</v>
+        <v>50416.167777000002</v>
       </c>
       <c r="G10" s="1">
         <v>14.004491</v>
       </c>
       <c r="H10" s="1">
-        <v>921.550000</v>
+        <v>921.55</v>
       </c>
       <c r="I10" s="1">
-        <v>-164.375000</v>
+        <v>-164.375</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
         <v>50426.350607</v>
       </c>
       <c r="L10" s="1">
-        <v>14.007320</v>
+        <v>14.00732</v>
       </c>
       <c r="M10" s="1">
-        <v>943.569000</v>
+        <v>943.56899999999996</v>
       </c>
       <c r="N10" s="1">
-        <v>-118.250000</v>
+        <v>-118.25</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>50436.554082</v>
+        <v>50436.554082000002</v>
       </c>
       <c r="Q10" s="1">
         <v>14.010154</v>
       </c>
       <c r="R10" s="1">
-        <v>950.083000</v>
+        <v>950.08299999999997</v>
       </c>
       <c r="S10" s="1">
-        <v>-103.129000</v>
+        <v>-103.129</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>50447.070484</v>
+        <v>50447.070484000003</v>
       </c>
       <c r="V10" s="1">
-        <v>14.013075</v>
+        <v>14.013075000000001</v>
       </c>
       <c r="W10" s="1">
-        <v>956.541000</v>
+        <v>956.54100000000005</v>
       </c>
       <c r="X10" s="1">
-        <v>-89.667000</v>
+        <v>-89.667000000000002</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>50457.219622</v>
+        <v>50457.219621999997</v>
       </c>
       <c r="AA10" s="1">
-        <v>14.015894</v>
+        <v>14.015893999999999</v>
       </c>
       <c r="AB10" s="1">
-        <v>963.897000</v>
+        <v>963.89700000000005</v>
       </c>
       <c r="AC10" s="1">
-        <v>-80.423800</v>
+        <v>-80.4238</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>50467.434730</v>
+        <v>50467.434730000001</v>
       </c>
       <c r="AF10" s="1">
         <v>14.018732</v>
       </c>
       <c r="AG10" s="1">
-        <v>968.839000</v>
+        <v>968.83900000000006</v>
       </c>
       <c r="AH10" s="1">
-        <v>-80.115200</v>
+        <v>-80.115200000000002</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>50477.613666</v>
+        <v>50477.613665999997</v>
       </c>
       <c r="AK10" s="1">
         <v>14.021559</v>
       </c>
       <c r="AL10" s="1">
-        <v>976.834000</v>
+        <v>976.83399999999995</v>
       </c>
       <c r="AM10" s="1">
-        <v>-88.088500</v>
+        <v>-88.088499999999996</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>50488.330221</v>
+        <v>50488.330220999997</v>
       </c>
       <c r="AP10" s="1">
-        <v>14.024536</v>
+        <v>14.024535999999999</v>
       </c>
       <c r="AQ10" s="1">
-        <v>986.085000</v>
+        <v>986.08500000000004</v>
       </c>
       <c r="AR10" s="1">
-        <v>-103.231000</v>
+        <v>-103.23099999999999</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>50499.336912</v>
+        <v>50499.336911999999</v>
       </c>
       <c r="AU10" s="1">
-        <v>14.027594</v>
+        <v>14.027594000000001</v>
       </c>
       <c r="AV10" s="1">
-        <v>997.585000</v>
+        <v>997.58500000000004</v>
       </c>
       <c r="AW10" s="1">
-        <v>-125.021000</v>
+        <v>-125.021</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>50510.361986</v>
+        <v>50510.361986000004</v>
       </c>
       <c r="AZ10" s="1">
         <v>14.030656</v>
       </c>
       <c r="BA10" s="1">
-        <v>1007.280000</v>
+        <v>1007.28</v>
       </c>
       <c r="BB10" s="1">
-        <v>-143.900000</v>
+        <v>-143.9</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>50521.374658</v>
+        <v>50521.374658000001</v>
       </c>
       <c r="BE10" s="1">
-        <v>14.033715</v>
+        <v>14.033715000000001</v>
       </c>
       <c r="BF10" s="1">
-        <v>1053.040000</v>
+        <v>1053.04</v>
       </c>
       <c r="BG10" s="1">
-        <v>-229.342000</v>
+        <v>-229.34200000000001</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>50532.521748</v>
+        <v>50532.521747999999</v>
       </c>
       <c r="BJ10" s="1">
-        <v>14.036812</v>
+        <v>14.036811999999999</v>
       </c>
       <c r="BK10" s="1">
-        <v>1133.020000</v>
+        <v>1133.02</v>
       </c>
       <c r="BL10" s="1">
-        <v>-366.229000</v>
+        <v>-366.22899999999998</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
         <v>50543.787912</v>
       </c>
       <c r="BO10" s="1">
-        <v>14.039941</v>
+        <v>14.039941000000001</v>
       </c>
       <c r="BP10" s="1">
-        <v>1265.080000</v>
+        <v>1265.08</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-577.705000</v>
+        <v>-577.70500000000004</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>50554.236102</v>
+        <v>50554.236102000003</v>
       </c>
       <c r="BT10" s="1">
         <v>14.042843</v>
       </c>
       <c r="BU10" s="1">
-        <v>1413.060000</v>
+        <v>1413.06</v>
       </c>
       <c r="BV10" s="1">
-        <v>-803.653000</v>
+        <v>-803.65300000000002</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>50564.978456</v>
+        <v>50564.978455999997</v>
       </c>
       <c r="BY10" s="1">
-        <v>14.045827</v>
+        <v>14.045826999999999</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1575.980000</v>
+        <v>1575.98</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1040.390000</v>
+        <v>-1040.3900000000001</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>50576.688506</v>
+        <v>50576.688505999999</v>
       </c>
       <c r="CD10" s="1">
-        <v>14.049080</v>
+        <v>14.04908</v>
       </c>
       <c r="CE10" s="1">
-        <v>1986.300000</v>
+        <v>1986.3</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1593.110000</v>
+        <v>-1593.11</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>50406.392618</v>
+        <v>50406.392617999998</v>
       </c>
       <c r="B11" s="1">
         <v>14.001776</v>
       </c>
       <c r="C11" s="1">
-        <v>904.917000</v>
+        <v>904.91700000000003</v>
       </c>
       <c r="D11" s="1">
-        <v>-193.228000</v>
+        <v>-193.22800000000001</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>50416.513484</v>
+        <v>50416.513484000003</v>
       </c>
       <c r="G11" s="1">
-        <v>14.004587</v>
+        <v>14.004587000000001</v>
       </c>
       <c r="H11" s="1">
-        <v>921.160000</v>
+        <v>921.16</v>
       </c>
       <c r="I11" s="1">
-        <v>-164.220000</v>
+        <v>-164.22</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>50426.696852</v>
+        <v>50426.696852000001</v>
       </c>
       <c r="L11" s="1">
-        <v>14.007416</v>
+        <v>14.007415999999999</v>
       </c>
       <c r="M11" s="1">
-        <v>943.665000</v>
+        <v>943.66499999999996</v>
       </c>
       <c r="N11" s="1">
-        <v>-118.253000</v>
+        <v>-118.253</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>50437.210546</v>
+        <v>50437.210546000002</v>
       </c>
       <c r="Q11" s="1">
-        <v>14.010336</v>
+        <v>14.010336000000001</v>
       </c>
       <c r="R11" s="1">
-        <v>950.037000</v>
+        <v>950.03700000000003</v>
       </c>
       <c r="S11" s="1">
-        <v>-103.144000</v>
+        <v>-103.14400000000001</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>50447.452411</v>
+        <v>50447.452410999998</v>
       </c>
       <c r="V11" s="1">
-        <v>14.013181</v>
+        <v>14.013180999999999</v>
       </c>
       <c r="W11" s="1">
-        <v>956.671000</v>
+        <v>956.67100000000005</v>
       </c>
       <c r="X11" s="1">
-        <v>-89.640100</v>
+        <v>-89.640100000000004</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>50457.606999</v>
+        <v>50457.606999000003</v>
       </c>
       <c r="AA11" s="1">
         <v>14.016002</v>
       </c>
       <c r="AB11" s="1">
-        <v>963.832000</v>
+        <v>963.83199999999999</v>
       </c>
       <c r="AC11" s="1">
-        <v>-80.392100</v>
+        <v>-80.392099999999999</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>50467.773498</v>
+        <v>50467.773498000002</v>
       </c>
       <c r="AF11" s="1">
-        <v>14.018826</v>
+        <v>14.018826000000001</v>
       </c>
       <c r="AG11" s="1">
-        <v>968.905000</v>
+        <v>968.90499999999997</v>
       </c>
       <c r="AH11" s="1">
-        <v>-80.092900</v>
+        <v>-80.0929</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>50477.966779</v>
+        <v>50477.966779000002</v>
       </c>
       <c r="AK11" s="1">
-        <v>14.021657</v>
+        <v>14.021656999999999</v>
       </c>
       <c r="AL11" s="1">
-        <v>976.837000</v>
+        <v>976.83699999999999</v>
       </c>
       <c r="AM11" s="1">
-        <v>-88.114100</v>
+        <v>-88.114099999999993</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>50488.689790</v>
+        <v>50488.689789999997</v>
       </c>
       <c r="AP11" s="1">
-        <v>14.024636</v>
+        <v>14.024635999999999</v>
       </c>
       <c r="AQ11" s="1">
-        <v>986.109000</v>
+        <v>986.10900000000004</v>
       </c>
       <c r="AR11" s="1">
-        <v>-103.224000</v>
+        <v>-103.224</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
         <v>50499.764959</v>
       </c>
       <c r="AU11" s="1">
-        <v>14.027712</v>
+        <v>14.027711999999999</v>
       </c>
       <c r="AV11" s="1">
-        <v>997.587000</v>
+        <v>997.58699999999999</v>
       </c>
       <c r="AW11" s="1">
-        <v>-125.021000</v>
+        <v>-125.021</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>50510.794991</v>
+        <v>50510.794991000002</v>
       </c>
       <c r="AZ11" s="1">
-        <v>14.030776</v>
+        <v>14.030775999999999</v>
       </c>
       <c r="BA11" s="1">
-        <v>1007.290000</v>
+        <v>1007.29</v>
       </c>
       <c r="BB11" s="1">
-        <v>-143.911000</v>
+        <v>-143.911</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>50521.676225</v>
+        <v>50521.676225000003</v>
       </c>
       <c r="BE11" s="1">
         <v>14.033799</v>
       </c>
       <c r="BF11" s="1">
-        <v>1052.990000</v>
+        <v>1052.99</v>
       </c>
       <c r="BG11" s="1">
-        <v>-229.328000</v>
+        <v>-229.328</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>50532.897218</v>
+        <v>50532.897217999998</v>
       </c>
       <c r="BJ11" s="1">
         <v>14.036916</v>
       </c>
       <c r="BK11" s="1">
-        <v>1133.030000</v>
+        <v>1133.03</v>
       </c>
       <c r="BL11" s="1">
-        <v>-366.147000</v>
+        <v>-366.14699999999999</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>50544.210504</v>
+        <v>50544.210504000002</v>
       </c>
       <c r="BO11" s="1">
         <v>14.040058</v>
       </c>
       <c r="BP11" s="1">
-        <v>1265.070000</v>
+        <v>1265.07</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-577.725000</v>
+        <v>-577.72500000000002</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>50554.645799</v>
+        <v>50554.645798999998</v>
       </c>
       <c r="BT11" s="1">
-        <v>14.042957</v>
+        <v>14.042956999999999</v>
       </c>
       <c r="BU11" s="1">
-        <v>1412.990000</v>
+        <v>1412.99</v>
       </c>
       <c r="BV11" s="1">
-        <v>-803.809000</v>
+        <v>-803.80899999999997</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>50565.399063</v>
+        <v>50565.399062999997</v>
       </c>
       <c r="BY11" s="1">
         <v>14.045944</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1576.050000</v>
+        <v>1576.05</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1040.150000</v>
+        <v>-1040.1500000000001</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>50577.240554</v>
+        <v>50577.240554000004</v>
       </c>
       <c r="CD11" s="1">
-        <v>14.049233</v>
+        <v>14.049232999999999</v>
       </c>
       <c r="CE11" s="1">
-        <v>1986.710000</v>
+        <v>1986.71</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1592.060000</v>
+        <v>-1592.06</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>50406.735849</v>
+        <v>50406.735848999997</v>
       </c>
       <c r="B12" s="1">
         <v>14.001871</v>
       </c>
       <c r="C12" s="1">
-        <v>904.793000</v>
+        <v>904.79300000000001</v>
       </c>
       <c r="D12" s="1">
-        <v>-193.178000</v>
+        <v>-193.178</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
         <v>50417.167212</v>
@@ -3066,1146 +3482,1146 @@
         <v>14.004769</v>
       </c>
       <c r="H12" s="1">
-        <v>921.287000</v>
+        <v>921.28700000000003</v>
       </c>
       <c r="I12" s="1">
-        <v>-164.915000</v>
+        <v>-164.91499999999999</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
         <v>50427.423486</v>
       </c>
       <c r="L12" s="1">
-        <v>14.007618</v>
+        <v>14.007618000000001</v>
       </c>
       <c r="M12" s="1">
-        <v>943.555000</v>
+        <v>943.55499999999995</v>
       </c>
       <c r="N12" s="1">
-        <v>-118.094000</v>
+        <v>-118.09399999999999</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>50437.600896</v>
+        <v>50437.600896000004</v>
       </c>
       <c r="Q12" s="1">
-        <v>14.010445</v>
+        <v>14.010445000000001</v>
       </c>
       <c r="R12" s="1">
-        <v>950.026000</v>
+        <v>950.02599999999995</v>
       </c>
       <c r="S12" s="1">
-        <v>-103.096000</v>
+        <v>-103.096</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>50447.796132</v>
+        <v>50447.796132000003</v>
       </c>
       <c r="V12" s="1">
         <v>14.013277</v>
       </c>
       <c r="W12" s="1">
-        <v>956.555000</v>
+        <v>956.55499999999995</v>
       </c>
       <c r="X12" s="1">
-        <v>-89.762200</v>
+        <v>-89.762200000000007</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>50457.955687</v>
+        <v>50457.955687000001</v>
       </c>
       <c r="AA12" s="1">
-        <v>14.016099</v>
+        <v>14.016099000000001</v>
       </c>
       <c r="AB12" s="1">
-        <v>963.878000</v>
+        <v>963.87800000000004</v>
       </c>
       <c r="AC12" s="1">
-        <v>-80.408200</v>
+        <v>-80.408199999999994</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>50468.116728</v>
+        <v>50468.116728000001</v>
       </c>
       <c r="AF12" s="1">
-        <v>14.018921</v>
+        <v>14.018921000000001</v>
       </c>
       <c r="AG12" s="1">
-        <v>968.857000</v>
+        <v>968.85699999999997</v>
       </c>
       <c r="AH12" s="1">
-        <v>-80.173800</v>
+        <v>-80.1738</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>50478.506463</v>
+        <v>50478.506462999998</v>
       </c>
       <c r="AK12" s="1">
-        <v>14.021807</v>
+        <v>14.021807000000001</v>
       </c>
       <c r="AL12" s="1">
-        <v>976.860000</v>
+        <v>976.86</v>
       </c>
       <c r="AM12" s="1">
-        <v>-88.083900</v>
+        <v>-88.0839</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>50489.112414</v>
+        <v>50489.112414000003</v>
       </c>
       <c r="AP12" s="1">
         <v>14.024753</v>
       </c>
       <c r="AQ12" s="1">
-        <v>986.088000</v>
+        <v>986.08799999999997</v>
       </c>
       <c r="AR12" s="1">
-        <v>-103.232000</v>
+        <v>-103.232</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>50500.069503</v>
+        <v>50500.069502999999</v>
       </c>
       <c r="AU12" s="1">
         <v>14.027797</v>
       </c>
       <c r="AV12" s="1">
-        <v>997.597000</v>
+        <v>997.59699999999998</v>
       </c>
       <c r="AW12" s="1">
-        <v>-124.980000</v>
+        <v>-124.98</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>50511.090608</v>
+        <v>50511.090607999999</v>
       </c>
       <c r="AZ12" s="1">
         <v>14.030859</v>
       </c>
       <c r="BA12" s="1">
-        <v>1007.300000</v>
+        <v>1007.3</v>
       </c>
       <c r="BB12" s="1">
-        <v>-143.905000</v>
+        <v>-143.905</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>50522.035328</v>
+        <v>50522.035327999998</v>
       </c>
       <c r="BE12" s="1">
         <v>14.033899</v>
       </c>
       <c r="BF12" s="1">
-        <v>1053.000000</v>
+        <v>1053</v>
       </c>
       <c r="BG12" s="1">
-        <v>-229.321000</v>
+        <v>-229.321</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>50533.274675</v>
+        <v>50533.274675000001</v>
       </c>
       <c r="BJ12" s="1">
-        <v>14.037021</v>
+        <v>14.037020999999999</v>
       </c>
       <c r="BK12" s="1">
-        <v>1133.030000</v>
+        <v>1133.03</v>
       </c>
       <c r="BL12" s="1">
-        <v>-366.167000</v>
+        <v>-366.16699999999997</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>50544.608259</v>
+        <v>50544.608259000001</v>
       </c>
       <c r="BO12" s="1">
-        <v>14.040169</v>
+        <v>14.040169000000001</v>
       </c>
       <c r="BP12" s="1">
-        <v>1265.050000</v>
+        <v>1265.05</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-577.761000</v>
+        <v>-577.76099999999997</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>50555.077853</v>
+        <v>50555.077853000003</v>
       </c>
       <c r="BT12" s="1">
         <v>14.043077</v>
       </c>
       <c r="BU12" s="1">
-        <v>1412.890000</v>
+        <v>1412.89</v>
       </c>
       <c r="BV12" s="1">
-        <v>-803.858000</v>
+        <v>-803.85799999999995</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>50565.843976</v>
+        <v>50565.843975999996</v>
       </c>
       <c r="BY12" s="1">
         <v>14.046068</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1575.870000</v>
+        <v>1575.87</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1040.250000</v>
+        <v>-1040.25</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>50577.768297</v>
+        <v>50577.768297000002</v>
       </c>
       <c r="CD12" s="1">
-        <v>14.049380</v>
+        <v>14.049379999999999</v>
       </c>
       <c r="CE12" s="1">
-        <v>1986.680000</v>
+        <v>1986.68</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1593.480000</v>
+        <v>-1593.48</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>50407.381112</v>
+        <v>50407.381112000003</v>
       </c>
       <c r="B13" s="1">
-        <v>14.002050</v>
+        <v>14.002050000000001</v>
       </c>
       <c r="C13" s="1">
-        <v>904.786000</v>
+        <v>904.78599999999994</v>
       </c>
       <c r="D13" s="1">
-        <v>-193.178000</v>
+        <v>-193.178</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>50417.546155</v>
+        <v>50417.546155000004</v>
       </c>
       <c r="G13" s="1">
-        <v>14.004874</v>
+        <v>14.004873999999999</v>
       </c>
       <c r="H13" s="1">
-        <v>921.607000</v>
+        <v>921.60699999999997</v>
       </c>
       <c r="I13" s="1">
-        <v>-163.795000</v>
+        <v>-163.79499999999999</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>50427.733490</v>
+        <v>50427.733489999999</v>
       </c>
       <c r="L13" s="1">
         <v>14.007704</v>
       </c>
       <c r="M13" s="1">
-        <v>943.516000</v>
+        <v>943.51599999999996</v>
       </c>
       <c r="N13" s="1">
-        <v>-118.128000</v>
+        <v>-118.128</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>50437.952069</v>
+        <v>50437.952068999999</v>
       </c>
       <c r="Q13" s="1">
-        <v>14.010542</v>
+        <v>14.010541999999999</v>
       </c>
       <c r="R13" s="1">
-        <v>950.041000</v>
+        <v>950.04100000000005</v>
       </c>
       <c r="S13" s="1">
-        <v>-103.110000</v>
+        <v>-103.11</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
         <v>50448.136884</v>
       </c>
       <c r="V13" s="1">
-        <v>14.013371</v>
+        <v>14.013370999999999</v>
       </c>
       <c r="W13" s="1">
-        <v>956.521000</v>
+        <v>956.52099999999996</v>
       </c>
       <c r="X13" s="1">
-        <v>-89.675800</v>
+        <v>-89.675799999999995</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>50458.300935</v>
+        <v>50458.300934999999</v>
       </c>
       <c r="AA13" s="1">
         <v>14.016195</v>
       </c>
       <c r="AB13" s="1">
-        <v>963.829000</v>
+        <v>963.82899999999995</v>
       </c>
       <c r="AC13" s="1">
-        <v>-80.429700</v>
+        <v>-80.429699999999997</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>50468.533400</v>
+        <v>50468.5334</v>
       </c>
       <c r="AF13" s="1">
-        <v>14.019037</v>
+        <v>14.019037000000001</v>
       </c>
       <c r="AG13" s="1">
-        <v>968.601000</v>
+        <v>968.601</v>
       </c>
       <c r="AH13" s="1">
-        <v>-80.102900</v>
+        <v>-80.102900000000005</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
         <v>50478.659194</v>
       </c>
       <c r="AK13" s="1">
-        <v>14.021850</v>
+        <v>14.021850000000001</v>
       </c>
       <c r="AL13" s="1">
-        <v>976.874000</v>
+        <v>976.87400000000002</v>
       </c>
       <c r="AM13" s="1">
-        <v>-88.089700</v>
+        <v>-88.089699999999993</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>50489.410508</v>
+        <v>50489.410508000001</v>
       </c>
       <c r="AP13" s="1">
-        <v>14.024836</v>
+        <v>14.024836000000001</v>
       </c>
       <c r="AQ13" s="1">
-        <v>986.110000</v>
+        <v>986.11</v>
       </c>
       <c r="AR13" s="1">
-        <v>-103.243000</v>
+        <v>-103.24299999999999</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>50500.435085</v>
+        <v>50500.435084999997</v>
       </c>
       <c r="AU13" s="1">
         <v>14.027899</v>
       </c>
       <c r="AV13" s="1">
-        <v>997.575000</v>
+        <v>997.57500000000005</v>
       </c>
       <c r="AW13" s="1">
-        <v>-125.002000</v>
+        <v>-125.002</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>50511.469092</v>
+        <v>50511.469091999999</v>
       </c>
       <c r="AZ13" s="1">
-        <v>14.030964</v>
+        <v>14.030964000000001</v>
       </c>
       <c r="BA13" s="1">
-        <v>1007.310000</v>
+        <v>1007.31</v>
       </c>
       <c r="BB13" s="1">
-        <v>-143.899000</v>
+        <v>-143.899</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>50522.397409</v>
+        <v>50522.397408999997</v>
       </c>
       <c r="BE13" s="1">
         <v>14.033999</v>
       </c>
       <c r="BF13" s="1">
-        <v>1053.020000</v>
+        <v>1053.02</v>
       </c>
       <c r="BG13" s="1">
-        <v>-229.320000</v>
+        <v>-229.32</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>50534.043505</v>
+        <v>50534.043505000001</v>
       </c>
       <c r="BJ13" s="1">
         <v>14.037234</v>
       </c>
       <c r="BK13" s="1">
-        <v>1132.970000</v>
+        <v>1132.97</v>
       </c>
       <c r="BL13" s="1">
-        <v>-366.166000</v>
+        <v>-366.166</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>50545.034820</v>
+        <v>50545.034820000001</v>
       </c>
       <c r="BO13" s="1">
-        <v>14.040287</v>
+        <v>14.040286999999999</v>
       </c>
       <c r="BP13" s="1">
-        <v>1265.080000</v>
+        <v>1265.08</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-577.775000</v>
+        <v>-577.77499999999998</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
         <v>50555.503416</v>
       </c>
       <c r="BT13" s="1">
-        <v>14.043195</v>
+        <v>14.043195000000001</v>
       </c>
       <c r="BU13" s="1">
-        <v>1412.820000</v>
+        <v>1412.82</v>
       </c>
       <c r="BV13" s="1">
-        <v>-803.948000</v>
+        <v>-803.94799999999998</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>50566.265606</v>
+        <v>50566.265606000001</v>
       </c>
       <c r="BY13" s="1">
-        <v>14.046185</v>
+        <v>14.046184999999999</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1576.040000</v>
+        <v>1576.04</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1040.240000</v>
+        <v>-1040.24</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>50578.289628</v>
+        <v>50578.289627999999</v>
       </c>
       <c r="CD13" s="1">
-        <v>14.049525</v>
+        <v>14.049524999999999</v>
       </c>
       <c r="CE13" s="1">
-        <v>1988.270000</v>
+        <v>1988.27</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1592.480000</v>
+        <v>-1592.48</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>50407.758106</v>
+        <v>50407.758106000001</v>
       </c>
       <c r="B14" s="1">
         <v>14.002155</v>
       </c>
       <c r="C14" s="1">
-        <v>904.895000</v>
+        <v>904.89499999999998</v>
       </c>
       <c r="D14" s="1">
-        <v>-193.343000</v>
+        <v>-193.34299999999999</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>50417.890842</v>
+        <v>50417.890842000001</v>
       </c>
       <c r="G14" s="1">
-        <v>14.004970</v>
+        <v>14.00497</v>
       </c>
       <c r="H14" s="1">
-        <v>921.833000</v>
+        <v>921.83299999999997</v>
       </c>
       <c r="I14" s="1">
-        <v>-164.201000</v>
+        <v>-164.20099999999999</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>50428.078213</v>
+        <v>50428.078213000001</v>
       </c>
       <c r="L14" s="1">
-        <v>14.007800</v>
+        <v>14.0078</v>
       </c>
       <c r="M14" s="1">
-        <v>943.465000</v>
+        <v>943.46500000000003</v>
       </c>
       <c r="N14" s="1">
-        <v>-118.107000</v>
+        <v>-118.107</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>50438.302703</v>
+        <v>50438.302703000001</v>
       </c>
       <c r="Q14" s="1">
-        <v>14.010640</v>
+        <v>14.01064</v>
       </c>
       <c r="R14" s="1">
-        <v>950.070000</v>
+        <v>950.07</v>
       </c>
       <c r="S14" s="1">
-        <v>-103.122000</v>
+        <v>-103.122</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>50448.553526</v>
+        <v>50448.553526000003</v>
       </c>
       <c r="V14" s="1">
         <v>14.013487</v>
       </c>
       <c r="W14" s="1">
-        <v>956.604000</v>
+        <v>956.60400000000004</v>
       </c>
       <c r="X14" s="1">
-        <v>-89.667700</v>
+        <v>-89.667699999999996</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>50458.715594</v>
+        <v>50458.715594000001</v>
       </c>
       <c r="AA14" s="1">
-        <v>14.016310</v>
+        <v>14.016310000000001</v>
       </c>
       <c r="AB14" s="1">
-        <v>963.896000</v>
+        <v>963.89599999999996</v>
       </c>
       <c r="AC14" s="1">
-        <v>-80.440100</v>
+        <v>-80.440100000000001</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>50468.829976</v>
+        <v>50468.829976000001</v>
       </c>
       <c r="AF14" s="1">
         <v>14.019119</v>
       </c>
       <c r="AG14" s="1">
-        <v>969.007000</v>
+        <v>969.00699999999995</v>
       </c>
       <c r="AH14" s="1">
-        <v>-80.299300</v>
+        <v>-80.299300000000002</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>50479.007418</v>
+        <v>50479.007418000001</v>
       </c>
       <c r="AK14" s="1">
-        <v>14.021947</v>
+        <v>14.021947000000001</v>
       </c>
       <c r="AL14" s="1">
-        <v>976.831000</v>
+        <v>976.83100000000002</v>
       </c>
       <c r="AM14" s="1">
-        <v>-88.100700</v>
+        <v>-88.100700000000003</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>50489.773583</v>
+        <v>50489.773583000002</v>
       </c>
       <c r="AP14" s="1">
         <v>14.024937</v>
       </c>
       <c r="AQ14" s="1">
-        <v>986.118000</v>
+        <v>986.11800000000005</v>
       </c>
       <c r="AR14" s="1">
-        <v>-103.239000</v>
+        <v>-103.239</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
         <v>50500.797134</v>
       </c>
       <c r="AU14" s="1">
-        <v>14.027999</v>
+        <v>14.027998999999999</v>
       </c>
       <c r="AV14" s="1">
-        <v>997.581000</v>
+        <v>997.58100000000002</v>
       </c>
       <c r="AW14" s="1">
-        <v>-124.997000</v>
+        <v>-124.997</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>50512.140142</v>
+        <v>50512.140141999997</v>
       </c>
       <c r="AZ14" s="1">
-        <v>14.031150</v>
+        <v>14.03115</v>
       </c>
       <c r="BA14" s="1">
-        <v>1007.290000</v>
+        <v>1007.29</v>
       </c>
       <c r="BB14" s="1">
-        <v>-143.905000</v>
+        <v>-143.905</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>50523.118591</v>
+        <v>50523.118590999999</v>
       </c>
       <c r="BE14" s="1">
-        <v>14.034200</v>
+        <v>14.0342</v>
       </c>
       <c r="BF14" s="1">
-        <v>1053.000000</v>
+        <v>1053</v>
       </c>
       <c r="BG14" s="1">
-        <v>-229.343000</v>
+        <v>-229.34299999999999</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>50534.420466</v>
+        <v>50534.420466000003</v>
       </c>
       <c r="BJ14" s="1">
-        <v>14.037339</v>
+        <v>14.037338999999999</v>
       </c>
       <c r="BK14" s="1">
-        <v>1133.000000</v>
+        <v>1133</v>
       </c>
       <c r="BL14" s="1">
-        <v>-366.204000</v>
+        <v>-366.20400000000001</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>50545.426701</v>
+        <v>50545.426700999997</v>
       </c>
       <c r="BO14" s="1">
-        <v>14.040396</v>
+        <v>14.040395999999999</v>
       </c>
       <c r="BP14" s="1">
-        <v>1265.020000</v>
+        <v>1265.02</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-577.765000</v>
+        <v>-577.76499999999999</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>50555.914565</v>
+        <v>50555.914564999999</v>
       </c>
       <c r="BT14" s="1">
-        <v>14.043310</v>
+        <v>14.04331</v>
       </c>
       <c r="BU14" s="1">
-        <v>1412.780000</v>
+        <v>1412.78</v>
       </c>
       <c r="BV14" s="1">
-        <v>-804.074000</v>
+        <v>-804.07399999999996</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>50566.998693</v>
+        <v>50566.998693000001</v>
       </c>
       <c r="BY14" s="1">
         <v>14.046389</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1575.930000</v>
+        <v>1575.93</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1040.210000</v>
+        <v>-1040.21</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>50579.141221</v>
+        <v>50579.141220999998</v>
       </c>
       <c r="CD14" s="1">
         <v>14.049761</v>
       </c>
       <c r="CE14" s="1">
-        <v>1987.060000</v>
+        <v>1987.06</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1593.840000</v>
+        <v>-1593.84</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>50408.102295</v>
+        <v>50408.102294999997</v>
       </c>
       <c r="B15" s="1">
-        <v>14.002251</v>
+        <v>14.002250999999999</v>
       </c>
       <c r="C15" s="1">
-        <v>904.854000</v>
+        <v>904.85400000000004</v>
       </c>
       <c r="D15" s="1">
-        <v>-193.183000</v>
+        <v>-193.18299999999999</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>50418.233617</v>
+        <v>50418.233616999998</v>
       </c>
       <c r="G15" s="1">
         <v>14.005065</v>
       </c>
       <c r="H15" s="1">
-        <v>921.356000</v>
+        <v>921.35599999999999</v>
       </c>
       <c r="I15" s="1">
-        <v>-164.122000</v>
+        <v>-164.12200000000001</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>50428.492332</v>
+        <v>50428.492332000002</v>
       </c>
       <c r="L15" s="1">
-        <v>14.007915</v>
+        <v>14.007915000000001</v>
       </c>
       <c r="M15" s="1">
-        <v>943.584000</v>
+        <v>943.58399999999995</v>
       </c>
       <c r="N15" s="1">
-        <v>-118.097000</v>
+        <v>-118.09699999999999</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>50438.720479</v>
+        <v>50438.720479000003</v>
       </c>
       <c r="Q15" s="1">
-        <v>14.010756</v>
+        <v>14.010756000000001</v>
       </c>
       <c r="R15" s="1">
-        <v>950.064000</v>
+        <v>950.06399999999996</v>
       </c>
       <c r="S15" s="1">
-        <v>-103.128000</v>
+        <v>-103.128</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>50448.834754</v>
+        <v>50448.834754000003</v>
       </c>
       <c r="V15" s="1">
         <v>14.013565</v>
       </c>
       <c r="W15" s="1">
-        <v>956.566000</v>
+        <v>956.56600000000003</v>
       </c>
       <c r="X15" s="1">
-        <v>-89.525000</v>
+        <v>-89.525000000000006</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>50459.013652</v>
+        <v>50459.013652000001</v>
       </c>
       <c r="AA15" s="1">
-        <v>14.016393</v>
+        <v>14.016393000000001</v>
       </c>
       <c r="AB15" s="1">
-        <v>963.847000</v>
+        <v>963.84699999999998</v>
       </c>
       <c r="AC15" s="1">
-        <v>-80.399100</v>
+        <v>-80.399100000000004</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>50469.171719</v>
+        <v>50469.171718999998</v>
       </c>
       <c r="AF15" s="1">
         <v>14.019214</v>
       </c>
       <c r="AG15" s="1">
-        <v>968.851000</v>
+        <v>968.851</v>
       </c>
       <c r="AH15" s="1">
-        <v>-80.236000</v>
+        <v>-80.236000000000004</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
         <v>50479.360041</v>
       </c>
       <c r="AK15" s="1">
-        <v>14.022044</v>
+        <v>14.022043999999999</v>
       </c>
       <c r="AL15" s="1">
-        <v>976.847000</v>
+        <v>976.84699999999998</v>
       </c>
       <c r="AM15" s="1">
-        <v>-88.090800</v>
+        <v>-88.090800000000002</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>50490.131659</v>
+        <v>50490.131658999999</v>
       </c>
       <c r="AP15" s="1">
-        <v>14.025037</v>
+        <v>14.025036999999999</v>
       </c>
       <c r="AQ15" s="1">
-        <v>986.098000</v>
+        <v>986.09799999999996</v>
       </c>
       <c r="AR15" s="1">
-        <v>-103.216000</v>
+        <v>-103.21599999999999</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
         <v>50501.536172</v>
       </c>
       <c r="AU15" s="1">
-        <v>14.028204</v>
+        <v>14.028204000000001</v>
       </c>
       <c r="AV15" s="1">
-        <v>997.603000</v>
+        <v>997.60299999999995</v>
       </c>
       <c r="AW15" s="1">
-        <v>-124.996000</v>
+        <v>-124.996</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>50512.530494</v>
+        <v>50512.530493999999</v>
       </c>
       <c r="AZ15" s="1">
-        <v>14.031258</v>
+        <v>14.031257999999999</v>
       </c>
       <c r="BA15" s="1">
-        <v>1007.310000</v>
+        <v>1007.31</v>
       </c>
       <c r="BB15" s="1">
-        <v>-143.909000</v>
+        <v>-143.90899999999999</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>50523.506463</v>
+        <v>50523.506462999998</v>
       </c>
       <c r="BE15" s="1">
         <v>14.034307</v>
       </c>
       <c r="BF15" s="1">
-        <v>1053.020000</v>
+        <v>1053.02</v>
       </c>
       <c r="BG15" s="1">
-        <v>-229.320000</v>
+        <v>-229.32</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>50534.795904</v>
+        <v>50534.795903999999</v>
       </c>
       <c r="BJ15" s="1">
         <v>14.037443</v>
       </c>
       <c r="BK15" s="1">
-        <v>1133.040000</v>
+        <v>1133.04</v>
       </c>
       <c r="BL15" s="1">
-        <v>-366.192000</v>
+        <v>-366.19200000000001</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>50545.845783</v>
+        <v>50545.845782999997</v>
       </c>
       <c r="BO15" s="1">
-        <v>14.040513</v>
+        <v>14.040513000000001</v>
       </c>
       <c r="BP15" s="1">
-        <v>1265.070000</v>
+        <v>1265.07</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-577.756000</v>
+        <v>-577.75599999999997</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>50556.649140</v>
+        <v>50556.649140000001</v>
       </c>
       <c r="BT15" s="1">
         <v>14.043514</v>
       </c>
       <c r="BU15" s="1">
-        <v>1412.910000</v>
+        <v>1412.91</v>
       </c>
       <c r="BV15" s="1">
-        <v>-804.208000</v>
+        <v>-804.20799999999997</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>50567.168789</v>
+        <v>50567.168789000003</v>
       </c>
       <c r="BY15" s="1">
         <v>14.046436</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1575.870000</v>
+        <v>1575.87</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1040.200000</v>
+        <v>-1040.2</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>50579.366443</v>
+        <v>50579.366442999999</v>
       </c>
       <c r="CD15" s="1">
-        <v>14.049824</v>
+        <v>14.049823999999999</v>
       </c>
       <c r="CE15" s="1">
-        <v>1987.330000</v>
+        <v>1987.33</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1593.660000</v>
+        <v>-1593.66</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>50408.445563</v>
+        <v>50408.445563000001</v>
       </c>
       <c r="B16" s="1">
-        <v>14.002346</v>
+        <v>14.002345999999999</v>
       </c>
       <c r="C16" s="1">
-        <v>904.826000</v>
+        <v>904.82600000000002</v>
       </c>
       <c r="D16" s="1">
-        <v>-193.102000</v>
+        <v>-193.102</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>50418.654687</v>
+        <v>50418.654687000002</v>
       </c>
       <c r="G16" s="1">
         <v>14.005182</v>
       </c>
       <c r="H16" s="1">
-        <v>921.134000</v>
+        <v>921.13400000000001</v>
       </c>
       <c r="I16" s="1">
-        <v>-164.058000</v>
+        <v>-164.05799999999999</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>50428.773069</v>
+        <v>50428.773069000003</v>
       </c>
       <c r="L16" s="1">
-        <v>14.007993</v>
+        <v>14.007993000000001</v>
       </c>
       <c r="M16" s="1">
-        <v>943.464000</v>
+        <v>943.46400000000006</v>
       </c>
       <c r="N16" s="1">
-        <v>-118.089000</v>
+        <v>-118.089</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>50439.007054</v>
+        <v>50439.007054000002</v>
       </c>
       <c r="Q16" s="1">
         <v>14.010835</v>
       </c>
       <c r="R16" s="1">
-        <v>950.048000</v>
+        <v>950.048</v>
       </c>
       <c r="S16" s="1">
-        <v>-103.159000</v>
+        <v>-103.15900000000001</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>50449.176498</v>
+        <v>50449.176498000001</v>
       </c>
       <c r="V16" s="1">
-        <v>14.013660</v>
+        <v>14.01366</v>
       </c>
       <c r="W16" s="1">
-        <v>956.638000</v>
+        <v>956.63800000000003</v>
       </c>
       <c r="X16" s="1">
-        <v>-89.720400</v>
+        <v>-89.720399999999998</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>50459.361844</v>
+        <v>50459.361843999999</v>
       </c>
       <c r="AA16" s="1">
         <v>14.016489</v>
       </c>
       <c r="AB16" s="1">
-        <v>963.861000</v>
+        <v>963.86099999999999</v>
       </c>
       <c r="AC16" s="1">
-        <v>-80.367000</v>
+        <v>-80.367000000000004</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>50469.515446</v>
+        <v>50469.515445999998</v>
       </c>
       <c r="AF16" s="1">
-        <v>14.019310</v>
+        <v>14.019310000000001</v>
       </c>
       <c r="AG16" s="1">
-        <v>968.847000</v>
+        <v>968.84699999999998</v>
       </c>
       <c r="AH16" s="1">
-        <v>-80.366700</v>
+        <v>-80.366699999999994</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>50480.055930</v>
+        <v>50480.055930000002</v>
       </c>
       <c r="AK16" s="1">
         <v>14.022238</v>
       </c>
       <c r="AL16" s="1">
-        <v>976.840000</v>
+        <v>976.84</v>
       </c>
       <c r="AM16" s="1">
-        <v>-88.125900</v>
+        <v>-88.125900000000001</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>50490.852345</v>
+        <v>50490.852344999999</v>
       </c>
       <c r="AP16" s="1">
-        <v>14.025237</v>
+        <v>14.025237000000001</v>
       </c>
       <c r="AQ16" s="1">
-        <v>986.094000</v>
+        <v>986.09400000000005</v>
       </c>
       <c r="AR16" s="1">
-        <v>-103.232000</v>
+        <v>-103.232</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
         <v>50501.918587</v>
@@ -4214,210 +4630,210 @@
         <v>14.028311</v>
       </c>
       <c r="AV16" s="1">
-        <v>997.574000</v>
+        <v>997.57399999999996</v>
       </c>
       <c r="AW16" s="1">
-        <v>-125.011000</v>
+        <v>-125.011</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>50512.906498</v>
+        <v>50512.906497999997</v>
       </c>
       <c r="AZ16" s="1">
-        <v>14.031363</v>
+        <v>14.031363000000001</v>
       </c>
       <c r="BA16" s="1">
-        <v>1007.280000</v>
+        <v>1007.28</v>
       </c>
       <c r="BB16" s="1">
-        <v>-143.911000</v>
+        <v>-143.911</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>50523.866559</v>
+        <v>50523.866559000002</v>
       </c>
       <c r="BE16" s="1">
         <v>14.034407</v>
       </c>
       <c r="BF16" s="1">
-        <v>1053.010000</v>
+        <v>1053.01</v>
       </c>
       <c r="BG16" s="1">
-        <v>-229.341000</v>
+        <v>-229.34100000000001</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>50535.488320</v>
+        <v>50535.488319999997</v>
       </c>
       <c r="BJ16" s="1">
-        <v>14.037636</v>
+        <v>14.037635999999999</v>
       </c>
       <c r="BK16" s="1">
-        <v>1133.010000</v>
+        <v>1133.01</v>
       </c>
       <c r="BL16" s="1">
-        <v>-366.209000</v>
+        <v>-366.209</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>50546.286720</v>
+        <v>50546.286719999996</v>
       </c>
       <c r="BO16" s="1">
         <v>14.040635</v>
       </c>
       <c r="BP16" s="1">
-        <v>1265.080000</v>
+        <v>1265.08</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-577.759000</v>
+        <v>-577.75900000000001</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>50556.773636</v>
+        <v>50556.773635999998</v>
       </c>
       <c r="BT16" s="1">
-        <v>14.043548</v>
+        <v>14.043547999999999</v>
       </c>
       <c r="BU16" s="1">
-        <v>1413.010000</v>
+        <v>1413.01</v>
       </c>
       <c r="BV16" s="1">
-        <v>-804.310000</v>
+        <v>-804.31</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>50567.595861</v>
+        <v>50567.595861000002</v>
       </c>
       <c r="BY16" s="1">
         <v>14.046554</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1575.870000</v>
+        <v>1575.87</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1040.180000</v>
+        <v>-1040.18</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>50579.882740</v>
+        <v>50579.882740000001</v>
       </c>
       <c r="CD16" s="1">
-        <v>14.049967</v>
+        <v>14.049967000000001</v>
       </c>
       <c r="CE16" s="1">
-        <v>1987.980000</v>
+        <v>1987.98</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1592.580000</v>
+        <v>-1592.58</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>50408.864646</v>
+        <v>50408.864646000002</v>
       </c>
       <c r="B17" s="1">
         <v>14.002462</v>
       </c>
       <c r="C17" s="1">
-        <v>904.817000</v>
+        <v>904.81700000000001</v>
       </c>
       <c r="D17" s="1">
-        <v>-193.153000</v>
+        <v>-193.15299999999999</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>50418.929962</v>
+        <v>50418.929962000002</v>
       </c>
       <c r="G17" s="1">
         <v>14.005258</v>
       </c>
       <c r="H17" s="1">
-        <v>921.204000</v>
+        <v>921.20399999999995</v>
       </c>
       <c r="I17" s="1">
-        <v>-163.732000</v>
+        <v>-163.732</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>50429.117820</v>
+        <v>50429.117819999999</v>
       </c>
       <c r="L17" s="1">
-        <v>14.008088</v>
+        <v>14.008088000000001</v>
       </c>
       <c r="M17" s="1">
-        <v>943.447000</v>
+        <v>943.447</v>
       </c>
       <c r="N17" s="1">
-        <v>-118.086000</v>
+        <v>-118.086</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
         <v>50439.361695</v>
       </c>
       <c r="Q17" s="1">
-        <v>14.010934</v>
+        <v>14.010934000000001</v>
       </c>
       <c r="R17" s="1">
-        <v>950.039000</v>
+        <v>950.03899999999999</v>
       </c>
       <c r="S17" s="1">
-        <v>-103.111000</v>
+        <v>-103.111</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>50449.524194</v>
+        <v>50449.524193999998</v>
       </c>
       <c r="V17" s="1">
         <v>14.013757</v>
       </c>
       <c r="W17" s="1">
-        <v>956.566000</v>
+        <v>956.56600000000003</v>
       </c>
       <c r="X17" s="1">
-        <v>-89.745000</v>
+        <v>-89.745000000000005</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>50459.710563</v>
+        <v>50459.710563000001</v>
       </c>
       <c r="AA17" s="1">
         <v>14.016586</v>
       </c>
       <c r="AB17" s="1">
-        <v>963.801000</v>
+        <v>963.80100000000004</v>
       </c>
       <c r="AC17" s="1">
-        <v>-80.408400</v>
+        <v>-80.4084</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
         <v>50470.204886</v>
@@ -4426,225 +4842,225 @@
         <v>14.019501</v>
       </c>
       <c r="AG17" s="1">
-        <v>968.894000</v>
+        <v>968.89400000000001</v>
       </c>
       <c r="AH17" s="1">
-        <v>-80.257900</v>
+        <v>-80.257900000000006</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>50480.404151</v>
+        <v>50480.404151000002</v>
       </c>
       <c r="AK17" s="1">
-        <v>14.022334</v>
+        <v>14.022334000000001</v>
       </c>
       <c r="AL17" s="1">
-        <v>976.835000</v>
+        <v>976.83500000000004</v>
       </c>
       <c r="AM17" s="1">
-        <v>-88.089800</v>
+        <v>-88.089799999999997</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>50491.210490</v>
+        <v>50491.210489999998</v>
       </c>
       <c r="AP17" s="1">
-        <v>14.025336</v>
+        <v>14.025335999999999</v>
       </c>
       <c r="AQ17" s="1">
-        <v>986.111000</v>
+        <v>986.11099999999999</v>
       </c>
       <c r="AR17" s="1">
-        <v>-103.229000</v>
+        <v>-103.229</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
         <v>50502.281529</v>
       </c>
       <c r="AU17" s="1">
-        <v>14.028412</v>
+        <v>14.028411999999999</v>
       </c>
       <c r="AV17" s="1">
-        <v>997.578000</v>
+        <v>997.57799999999997</v>
       </c>
       <c r="AW17" s="1">
-        <v>-125.006000</v>
+        <v>-125.006</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>50513.597041</v>
+        <v>50513.597041000001</v>
       </c>
       <c r="AZ17" s="1">
-        <v>14.031555</v>
+        <v>14.031555000000001</v>
       </c>
       <c r="BA17" s="1">
-        <v>1007.300000</v>
+        <v>1007.3</v>
       </c>
       <c r="BB17" s="1">
-        <v>-143.917000</v>
+        <v>-143.917</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>50524.537645</v>
+        <v>50524.537644999997</v>
       </c>
       <c r="BE17" s="1">
         <v>14.034594</v>
       </c>
       <c r="BF17" s="1">
-        <v>1053.010000</v>
+        <v>1053.01</v>
       </c>
       <c r="BG17" s="1">
-        <v>-229.325000</v>
+        <v>-229.32499999999999</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>50535.950608</v>
+        <v>50535.950607999999</v>
       </c>
       <c r="BJ17" s="1">
-        <v>14.037764</v>
+        <v>14.037763999999999</v>
       </c>
       <c r="BK17" s="1">
-        <v>1133.010000</v>
+        <v>1133.01</v>
       </c>
       <c r="BL17" s="1">
-        <v>-366.199000</v>
+        <v>-366.19900000000001</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>50546.663712</v>
+        <v>50546.663712000001</v>
       </c>
       <c r="BO17" s="1">
-        <v>14.040740</v>
+        <v>14.04074</v>
       </c>
       <c r="BP17" s="1">
-        <v>1265.040000</v>
+        <v>1265.04</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-577.761000</v>
+        <v>-577.76099999999997</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>50557.186307</v>
+        <v>50557.186307000004</v>
       </c>
       <c r="BT17" s="1">
         <v>14.043663</v>
       </c>
       <c r="BU17" s="1">
-        <v>1413.100000</v>
+        <v>1413.1</v>
       </c>
       <c r="BV17" s="1">
-        <v>-804.370000</v>
+        <v>-804.37</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>50568.013011</v>
+        <v>50568.013011000003</v>
       </c>
       <c r="BY17" s="1">
-        <v>14.046670</v>
+        <v>14.046670000000001</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1576.020000</v>
+        <v>1576.02</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1040.200000</v>
+        <v>-1040.2</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>50580.430324</v>
+        <v>50580.430324000001</v>
       </c>
       <c r="CD17" s="1">
-        <v>14.050120</v>
+        <v>14.05012</v>
       </c>
       <c r="CE17" s="1">
-        <v>1987.480000</v>
+        <v>1987.48</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1593.700000</v>
+        <v>-1593.7</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>50409.144392</v>
+        <v>50409.144392000002</v>
       </c>
       <c r="B18" s="1">
-        <v>14.002540</v>
+        <v>14.00254</v>
       </c>
       <c r="C18" s="1">
-        <v>904.870000</v>
+        <v>904.87</v>
       </c>
       <c r="D18" s="1">
-        <v>-193.114000</v>
+        <v>-193.114</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>50419.274184</v>
+        <v>50419.274184000002</v>
       </c>
       <c r="G18" s="1">
-        <v>14.005354</v>
+        <v>14.005354000000001</v>
       </c>
       <c r="H18" s="1">
-        <v>921.560000</v>
+        <v>921.56</v>
       </c>
       <c r="I18" s="1">
-        <v>-163.915000</v>
+        <v>-163.91499999999999</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
         <v>50429.465484</v>
       </c>
       <c r="L18" s="1">
-        <v>14.008185</v>
+        <v>14.008184999999999</v>
       </c>
       <c r="M18" s="1">
-        <v>943.423000</v>
+        <v>943.423</v>
       </c>
       <c r="N18" s="1">
-        <v>-118.135000</v>
+        <v>-118.13500000000001</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>50439.708399</v>
+        <v>50439.708399000003</v>
       </c>
       <c r="Q18" s="1">
-        <v>14.011030</v>
+        <v>14.01103</v>
       </c>
       <c r="R18" s="1">
-        <v>950.039000</v>
+        <v>950.03899999999999</v>
       </c>
       <c r="S18" s="1">
-        <v>-103.103000</v>
+        <v>-103.10299999999999</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
         <v>50450.207681</v>
@@ -4653,148 +5069,148 @@
         <v>14.013947</v>
       </c>
       <c r="W18" s="1">
-        <v>956.541000</v>
+        <v>956.54100000000005</v>
       </c>
       <c r="X18" s="1">
-        <v>-89.714700</v>
+        <v>-89.714699999999993</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>50460.410921</v>
+        <v>50460.410921000002</v>
       </c>
       <c r="AA18" s="1">
         <v>14.016781</v>
       </c>
       <c r="AB18" s="1">
-        <v>963.751000</v>
+        <v>963.75099999999998</v>
       </c>
       <c r="AC18" s="1">
-        <v>-80.392100</v>
+        <v>-80.392099999999999</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>50470.547156</v>
+        <v>50470.547156000001</v>
       </c>
       <c r="AF18" s="1">
         <v>14.019596</v>
       </c>
       <c r="AG18" s="1">
-        <v>968.851000</v>
+        <v>968.851</v>
       </c>
       <c r="AH18" s="1">
-        <v>-80.213400</v>
+        <v>-80.213399999999993</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>50480.752809</v>
+        <v>50480.752808999998</v>
       </c>
       <c r="AK18" s="1">
-        <v>14.022431</v>
+        <v>14.022430999999999</v>
       </c>
       <c r="AL18" s="1">
-        <v>976.853000</v>
+        <v>976.85299999999995</v>
       </c>
       <c r="AM18" s="1">
-        <v>-88.092700</v>
+        <v>-88.092699999999994</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>50491.569561</v>
+        <v>50491.569560999997</v>
       </c>
       <c r="AP18" s="1">
-        <v>14.025436</v>
+        <v>14.025435999999999</v>
       </c>
       <c r="AQ18" s="1">
-        <v>986.104000</v>
+        <v>986.10400000000004</v>
       </c>
       <c r="AR18" s="1">
-        <v>-103.223000</v>
+        <v>-103.223</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>50502.960683</v>
+        <v>50502.960682999998</v>
       </c>
       <c r="AU18" s="1">
-        <v>14.028600</v>
+        <v>14.028600000000001</v>
       </c>
       <c r="AV18" s="1">
-        <v>997.581000</v>
+        <v>997.58100000000002</v>
       </c>
       <c r="AW18" s="1">
-        <v>-125.016000</v>
+        <v>-125.01600000000001</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>50514.005099</v>
+        <v>50514.005099000002</v>
       </c>
       <c r="AZ18" s="1">
         <v>14.031668</v>
       </c>
       <c r="BA18" s="1">
-        <v>1007.290000</v>
+        <v>1007.29</v>
       </c>
       <c r="BB18" s="1">
-        <v>-143.905000</v>
+        <v>-143.905</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>50524.983551</v>
+        <v>50524.983550999998</v>
       </c>
       <c r="BE18" s="1">
         <v>14.034718</v>
       </c>
       <c r="BF18" s="1">
-        <v>1053.020000</v>
+        <v>1053.02</v>
       </c>
       <c r="BG18" s="1">
-        <v>-229.322000</v>
+        <v>-229.322</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>50536.339950</v>
+        <v>50536.339950000001</v>
       </c>
       <c r="BJ18" s="1">
         <v>14.037872</v>
       </c>
       <c r="BK18" s="1">
-        <v>1133.000000</v>
+        <v>1133</v>
       </c>
       <c r="BL18" s="1">
-        <v>-366.173000</v>
+        <v>-366.173</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
         <v>50547.059985</v>
       </c>
       <c r="BO18" s="1">
-        <v>14.040850</v>
+        <v>14.040850000000001</v>
       </c>
       <c r="BP18" s="1">
-        <v>1265.100000</v>
+        <v>1265.0999999999999</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-577.772000</v>
+        <v>-577.77200000000005</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
         <v>50557.616339</v>
@@ -4803,240 +5219,240 @@
         <v>14.043782</v>
       </c>
       <c r="BU18" s="1">
-        <v>1413.300000</v>
+        <v>1413.3</v>
       </c>
       <c r="BV18" s="1">
-        <v>-804.427000</v>
+        <v>-804.42700000000002</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>50568.459908</v>
+        <v>50568.459907999997</v>
       </c>
       <c r="BY18" s="1">
         <v>14.046794</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1575.880000</v>
+        <v>1575.88</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1040.320000</v>
+        <v>-1040.32</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>50580.940223</v>
+        <v>50580.940222999998</v>
       </c>
       <c r="CD18" s="1">
-        <v>14.050261</v>
+        <v>14.050261000000001</v>
       </c>
       <c r="CE18" s="1">
-        <v>1987.390000</v>
+        <v>1987.39</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1593.730000</v>
+        <v>-1593.73</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>50409.486630</v>
+        <v>50409.486629999999</v>
       </c>
       <c r="B19" s="1">
         <v>14.002635</v>
       </c>
       <c r="C19" s="1">
-        <v>904.787000</v>
+        <v>904.78700000000003</v>
       </c>
       <c r="D19" s="1">
-        <v>-193.044000</v>
+        <v>-193.04400000000001</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>50419.622380</v>
+        <v>50419.622380000001</v>
       </c>
       <c r="G19" s="1">
-        <v>14.005451</v>
+        <v>14.005451000000001</v>
       </c>
       <c r="H19" s="1">
-        <v>921.104000</v>
+        <v>921.10400000000004</v>
       </c>
       <c r="I19" s="1">
-        <v>-163.898000</v>
+        <v>-163.898</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>50430.162363</v>
+        <v>50430.162363000003</v>
       </c>
       <c r="L19" s="1">
         <v>14.008378</v>
       </c>
       <c r="M19" s="1">
-        <v>943.387000</v>
+        <v>943.38699999999994</v>
       </c>
       <c r="N19" s="1">
-        <v>-118.150000</v>
+        <v>-118.15</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>50440.403567</v>
+        <v>50440.403567000001</v>
       </c>
       <c r="Q19" s="1">
-        <v>14.011223</v>
+        <v>14.011222999999999</v>
       </c>
       <c r="R19" s="1">
-        <v>950.064000</v>
+        <v>950.06399999999996</v>
       </c>
       <c r="S19" s="1">
-        <v>-103.119000</v>
+        <v>-103.119</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>50450.550416</v>
+        <v>50450.550415999998</v>
       </c>
       <c r="V19" s="1">
         <v>14.014042</v>
       </c>
       <c r="W19" s="1">
-        <v>956.665000</v>
+        <v>956.66499999999996</v>
       </c>
       <c r="X19" s="1">
-        <v>-89.678600</v>
+        <v>-89.678600000000003</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
         <v>50460.757587</v>
       </c>
       <c r="AA19" s="1">
-        <v>14.016877</v>
+        <v>14.016876999999999</v>
       </c>
       <c r="AB19" s="1">
-        <v>963.862000</v>
+        <v>963.86199999999997</v>
       </c>
       <c r="AC19" s="1">
-        <v>-80.495100</v>
+        <v>-80.495099999999994</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>50470.891349</v>
+        <v>50470.891348999998</v>
       </c>
       <c r="AF19" s="1">
-        <v>14.019692</v>
+        <v>14.019691999999999</v>
       </c>
       <c r="AG19" s="1">
-        <v>968.857000</v>
+        <v>968.85699999999997</v>
       </c>
       <c r="AH19" s="1">
-        <v>-80.286800</v>
+        <v>-80.286799999999999</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>50481.413478</v>
+        <v>50481.413478000002</v>
       </c>
       <c r="AK19" s="1">
         <v>14.022615</v>
       </c>
       <c r="AL19" s="1">
-        <v>976.836000</v>
+        <v>976.83600000000001</v>
       </c>
       <c r="AM19" s="1">
-        <v>-88.089600</v>
+        <v>-88.089600000000004</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>50492.237672</v>
+        <v>50492.237672000003</v>
       </c>
       <c r="AP19" s="1">
         <v>14.025622</v>
       </c>
       <c r="AQ19" s="1">
-        <v>986.097000</v>
+        <v>986.09699999999998</v>
       </c>
       <c r="AR19" s="1">
-        <v>-103.228000</v>
+        <v>-103.22799999999999</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>50503.403611</v>
+        <v>50503.403611000002</v>
       </c>
       <c r="AU19" s="1">
-        <v>14.028723</v>
+        <v>14.028722999999999</v>
       </c>
       <c r="AV19" s="1">
-        <v>997.582000</v>
+        <v>997.58199999999999</v>
       </c>
       <c r="AW19" s="1">
-        <v>-124.986000</v>
+        <v>-124.986</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>50514.362715</v>
+        <v>50514.362715000003</v>
       </c>
       <c r="AZ19" s="1">
         <v>14.031767</v>
       </c>
       <c r="BA19" s="1">
-        <v>1007.270000</v>
+        <v>1007.27</v>
       </c>
       <c r="BB19" s="1">
-        <v>-143.904000</v>
+        <v>-143.904</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>50525.346127</v>
+        <v>50525.346126999997</v>
       </c>
       <c r="BE19" s="1">
         <v>14.034818</v>
       </c>
       <c r="BF19" s="1">
-        <v>1053.010000</v>
+        <v>1053.01</v>
       </c>
       <c r="BG19" s="1">
-        <v>-229.329000</v>
+        <v>-229.32900000000001</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>50536.717903</v>
+        <v>50536.717902999997</v>
       </c>
       <c r="BJ19" s="1">
         <v>14.037977</v>
       </c>
       <c r="BK19" s="1">
-        <v>1133.010000</v>
+        <v>1133.01</v>
       </c>
       <c r="BL19" s="1">
-        <v>-366.150000</v>
+        <v>-366.15</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
         <v>50547.481087</v>
@@ -5045,452 +5461,452 @@
         <v>14.040967</v>
       </c>
       <c r="BP19" s="1">
-        <v>1265.050000</v>
+        <v>1265.05</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-577.723000</v>
+        <v>-577.72299999999996</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>50558.045875</v>
+        <v>50558.045875000003</v>
       </c>
       <c r="BT19" s="1">
-        <v>14.043902</v>
+        <v>14.043901999999999</v>
       </c>
       <c r="BU19" s="1">
-        <v>1413.310000</v>
+        <v>1413.31</v>
       </c>
       <c r="BV19" s="1">
-        <v>-804.418000</v>
+        <v>-804.41800000000001</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>50568.880516</v>
+        <v>50568.880515999997</v>
       </c>
       <c r="BY19" s="1">
         <v>14.046911</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1576.070000</v>
+        <v>1576.07</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1040.440000</v>
+        <v>-1040.44</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>50581.458531</v>
+        <v>50581.458530999997</v>
       </c>
       <c r="CD19" s="1">
         <v>14.050405</v>
       </c>
       <c r="CE19" s="1">
-        <v>1988.140000</v>
+        <v>1988.14</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1592.460000</v>
+        <v>-1592.46</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>50409.830357</v>
+        <v>50409.830356999999</v>
       </c>
       <c r="B20" s="1">
-        <v>14.002731</v>
+        <v>14.002731000000001</v>
       </c>
       <c r="C20" s="1">
-        <v>904.778000</v>
+        <v>904.77800000000002</v>
       </c>
       <c r="D20" s="1">
-        <v>-193.227000</v>
+        <v>-193.227</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>50420.313303</v>
+        <v>50420.313303000003</v>
       </c>
       <c r="G20" s="1">
-        <v>14.005643</v>
+        <v>14.005642999999999</v>
       </c>
       <c r="H20" s="1">
-        <v>921.560000</v>
+        <v>921.56</v>
       </c>
       <c r="I20" s="1">
-        <v>-164.022000</v>
+        <v>-164.02199999999999</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>50430.509594</v>
+        <v>50430.509594000003</v>
       </c>
       <c r="L20" s="1">
-        <v>14.008475</v>
+        <v>14.008475000000001</v>
       </c>
       <c r="M20" s="1">
-        <v>943.365000</v>
+        <v>943.36500000000001</v>
       </c>
       <c r="N20" s="1">
-        <v>-118.011000</v>
+        <v>-118.011</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>50440.753474</v>
+        <v>50440.753473999997</v>
       </c>
       <c r="Q20" s="1">
-        <v>14.011320</v>
+        <v>14.01132</v>
       </c>
       <c r="R20" s="1">
-        <v>950.061000</v>
+        <v>950.06100000000004</v>
       </c>
       <c r="S20" s="1">
-        <v>-103.104000</v>
+        <v>-103.104</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>50450.894143</v>
+        <v>50450.894142999998</v>
       </c>
       <c r="V20" s="1">
         <v>14.014137</v>
       </c>
       <c r="W20" s="1">
-        <v>956.500000</v>
+        <v>956.5</v>
       </c>
       <c r="X20" s="1">
-        <v>-89.693800</v>
+        <v>-89.693799999999996</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>50461.105319</v>
+        <v>50461.105319000002</v>
       </c>
       <c r="AA20" s="1">
-        <v>14.016974</v>
+        <v>14.016973999999999</v>
       </c>
       <c r="AB20" s="1">
-        <v>963.873000</v>
+        <v>963.87300000000005</v>
       </c>
       <c r="AC20" s="1">
-        <v>-80.480800</v>
+        <v>-80.480800000000002</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>50471.552052</v>
+        <v>50471.552051999999</v>
       </c>
       <c r="AF20" s="1">
         <v>14.019876</v>
       </c>
       <c r="AG20" s="1">
-        <v>968.792000</v>
+        <v>968.79200000000003</v>
       </c>
       <c r="AH20" s="1">
-        <v>-80.123400</v>
+        <v>-80.123400000000004</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>50481.798375</v>
+        <v>50481.798374999998</v>
       </c>
       <c r="AK20" s="1">
         <v>14.022722</v>
       </c>
       <c r="AL20" s="1">
-        <v>976.819000</v>
+        <v>976.81899999999996</v>
       </c>
       <c r="AM20" s="1">
-        <v>-88.096600</v>
+        <v>-88.096599999999995</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>50492.685559</v>
+        <v>50492.685558999998</v>
       </c>
       <c r="AP20" s="1">
         <v>14.025746</v>
       </c>
       <c r="AQ20" s="1">
-        <v>986.112000</v>
+        <v>986.11199999999997</v>
       </c>
       <c r="AR20" s="1">
-        <v>-103.222000</v>
+        <v>-103.22199999999999</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>50503.768701</v>
+        <v>50503.768701000001</v>
       </c>
       <c r="AU20" s="1">
-        <v>14.028825</v>
+        <v>14.028824999999999</v>
       </c>
       <c r="AV20" s="1">
-        <v>997.573000</v>
+        <v>997.57299999999998</v>
       </c>
       <c r="AW20" s="1">
-        <v>-124.998000</v>
+        <v>-124.998</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>50514.722314</v>
+        <v>50514.722313999999</v>
       </c>
       <c r="AZ20" s="1">
         <v>14.031867</v>
       </c>
       <c r="BA20" s="1">
-        <v>1007.290000</v>
+        <v>1007.29</v>
       </c>
       <c r="BB20" s="1">
-        <v>-143.923000</v>
+        <v>-143.923</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>50525.706717</v>
+        <v>50525.706717000001</v>
       </c>
       <c r="BE20" s="1">
         <v>14.034919</v>
       </c>
       <c r="BF20" s="1">
-        <v>1052.990000</v>
+        <v>1052.99</v>
       </c>
       <c r="BG20" s="1">
-        <v>-229.326000</v>
+        <v>-229.32599999999999</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>50537.139997</v>
+        <v>50537.139996999998</v>
       </c>
       <c r="BJ20" s="1">
-        <v>14.038094</v>
+        <v>14.038093999999999</v>
       </c>
       <c r="BK20" s="1">
-        <v>1133.010000</v>
+        <v>1133.01</v>
       </c>
       <c r="BL20" s="1">
-        <v>-366.201000</v>
+        <v>-366.20100000000002</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>50547.877470</v>
+        <v>50547.877469999999</v>
       </c>
       <c r="BO20" s="1">
         <v>14.041077</v>
       </c>
       <c r="BP20" s="1">
-        <v>1265.050000</v>
+        <v>1265.05</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-577.784000</v>
+        <v>-577.78399999999999</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>50558.457585</v>
+        <v>50558.457584999996</v>
       </c>
       <c r="BT20" s="1">
-        <v>14.044016</v>
+        <v>14.044015999999999</v>
       </c>
       <c r="BU20" s="1">
-        <v>1413.510000</v>
+        <v>1413.51</v>
       </c>
       <c r="BV20" s="1">
-        <v>-804.332000</v>
+        <v>-804.33199999999999</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>50569.303570</v>
+        <v>50569.303569999996</v>
       </c>
       <c r="BY20" s="1">
         <v>14.047029</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1575.970000</v>
+        <v>1575.97</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1040.260000</v>
+        <v>-1040.26</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>50581.975892</v>
+        <v>50581.975892000002</v>
       </c>
       <c r="CD20" s="1">
         <v>14.050549</v>
       </c>
       <c r="CE20" s="1">
-        <v>1986.380000</v>
+        <v>1986.38</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1593.100000</v>
+        <v>-1593.1</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>50410.508885</v>
+        <v>50410.508885000003</v>
       </c>
       <c r="B21" s="1">
         <v>14.002919</v>
       </c>
       <c r="C21" s="1">
-        <v>904.858000</v>
+        <v>904.85799999999995</v>
       </c>
       <c r="D21" s="1">
-        <v>-193.285000</v>
+        <v>-193.285</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>50420.660007</v>
+        <v>50420.660006999999</v>
       </c>
       <c r="G21" s="1">
         <v>14.005739</v>
       </c>
       <c r="H21" s="1">
-        <v>921.763000</v>
+        <v>921.76300000000003</v>
       </c>
       <c r="I21" s="1">
-        <v>-164.345000</v>
+        <v>-164.345</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>50430.859241</v>
+        <v>50430.859240999998</v>
       </c>
       <c r="L21" s="1">
-        <v>14.008572</v>
+        <v>14.008571999999999</v>
       </c>
       <c r="M21" s="1">
-        <v>943.387000</v>
+        <v>943.38699999999994</v>
       </c>
       <c r="N21" s="1">
-        <v>-118.162000</v>
+        <v>-118.16200000000001</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>50441.099685</v>
+        <v>50441.099685000001</v>
       </c>
       <c r="Q21" s="1">
         <v>14.011417</v>
       </c>
       <c r="R21" s="1">
-        <v>950.068000</v>
+        <v>950.06799999999998</v>
       </c>
       <c r="S21" s="1">
-        <v>-103.121000</v>
+        <v>-103.121</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>50451.547901</v>
+        <v>50451.547900999998</v>
       </c>
       <c r="V21" s="1">
         <v>14.014319</v>
       </c>
       <c r="W21" s="1">
-        <v>956.535000</v>
+        <v>956.53499999999997</v>
       </c>
       <c r="X21" s="1">
-        <v>-89.773700</v>
+        <v>-89.773700000000005</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>50461.595328</v>
+        <v>50461.595328000003</v>
       </c>
       <c r="AA21" s="1">
-        <v>14.017110</v>
+        <v>14.017110000000001</v>
       </c>
       <c r="AB21" s="1">
-        <v>963.828000</v>
+        <v>963.82799999999997</v>
       </c>
       <c r="AC21" s="1">
-        <v>-80.415600</v>
+        <v>-80.415599999999998</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>50471.925011</v>
+        <v>50471.925010999999</v>
       </c>
       <c r="AF21" s="1">
-        <v>14.019979</v>
+        <v>14.019978999999999</v>
       </c>
       <c r="AG21" s="1">
-        <v>968.888000</v>
+        <v>968.88800000000003</v>
       </c>
       <c r="AH21" s="1">
-        <v>-80.214500</v>
+        <v>-80.214500000000001</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>50482.146070</v>
+        <v>50482.146070000003</v>
       </c>
       <c r="AK21" s="1">
-        <v>14.022818</v>
+        <v>14.022817999999999</v>
       </c>
       <c r="AL21" s="1">
-        <v>976.818000</v>
+        <v>976.81799999999998</v>
       </c>
       <c r="AM21" s="1">
-        <v>-88.083600</v>
+        <v>-88.083600000000004</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>50493.046151</v>
+        <v>50493.046151000002</v>
       </c>
       <c r="AP21" s="1">
         <v>14.025846</v>
       </c>
       <c r="AQ21" s="1">
-        <v>986.067000</v>
+        <v>986.06700000000001</v>
       </c>
       <c r="AR21" s="1">
-        <v>-103.248000</v>
+        <v>-103.248</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
         <v>50504.132265</v>
@@ -5499,844 +5915,844 @@
         <v>14.028926</v>
       </c>
       <c r="AV21" s="1">
-        <v>997.592000</v>
+        <v>997.59199999999998</v>
       </c>
       <c r="AW21" s="1">
-        <v>-124.983000</v>
+        <v>-124.983</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>50515.148377</v>
+        <v>50515.148376999998</v>
       </c>
       <c r="AZ21" s="1">
         <v>14.031986</v>
       </c>
       <c r="BA21" s="1">
-        <v>1007.290000</v>
+        <v>1007.29</v>
       </c>
       <c r="BB21" s="1">
-        <v>-143.912000</v>
+        <v>-143.91200000000001</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>50526.124348</v>
+        <v>50526.124347999998</v>
       </c>
       <c r="BE21" s="1">
-        <v>14.035035</v>
+        <v>14.035035000000001</v>
       </c>
       <c r="BF21" s="1">
-        <v>1053.000000</v>
+        <v>1053</v>
       </c>
       <c r="BG21" s="1">
-        <v>-229.327000</v>
+        <v>-229.327</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>50537.465373</v>
+        <v>50537.465372999999</v>
       </c>
       <c r="BJ21" s="1">
         <v>14.038185</v>
       </c>
       <c r="BK21" s="1">
-        <v>1133.000000</v>
+        <v>1133</v>
       </c>
       <c r="BL21" s="1">
-        <v>-366.145000</v>
+        <v>-366.14499999999998</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>50548.299488</v>
+        <v>50548.299487999997</v>
       </c>
       <c r="BO21" s="1">
-        <v>14.041194</v>
+        <v>14.041194000000001</v>
       </c>
       <c r="BP21" s="1">
-        <v>1265.090000</v>
+        <v>1265.0899999999999</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-577.787000</v>
+        <v>-577.78700000000003</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>50558.891057</v>
+        <v>50558.891057000001</v>
       </c>
       <c r="BT21" s="1">
         <v>14.044136</v>
       </c>
       <c r="BU21" s="1">
-        <v>1413.580000</v>
+        <v>1413.58</v>
       </c>
       <c r="BV21" s="1">
-        <v>-804.268000</v>
+        <v>-804.26800000000003</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>50569.751474</v>
+        <v>50569.751473999997</v>
       </c>
       <c r="BY21" s="1">
         <v>14.047153</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1575.850000</v>
+        <v>1575.85</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1040.270000</v>
+        <v>-1040.27</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>50582.517525</v>
+        <v>50582.517525000003</v>
       </c>
       <c r="CD21" s="1">
         <v>14.050699</v>
       </c>
       <c r="CE21" s="1">
-        <v>1988.100000</v>
+        <v>1988.1</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1593.750000</v>
+        <v>-1593.75</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>50410.853107</v>
+        <v>50410.853107000003</v>
       </c>
       <c r="B22" s="1">
         <v>14.003015</v>
       </c>
       <c r="C22" s="1">
-        <v>904.887000</v>
+        <v>904.88699999999994</v>
       </c>
       <c r="D22" s="1">
-        <v>-193.194000</v>
+        <v>-193.19399999999999</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
         <v>50421.006748</v>
       </c>
       <c r="G22" s="1">
-        <v>14.005835</v>
+        <v>14.005834999999999</v>
       </c>
       <c r="H22" s="1">
-        <v>921.718000</v>
+        <v>921.71799999999996</v>
       </c>
       <c r="I22" s="1">
-        <v>-164.567000</v>
+        <v>-164.56700000000001</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
         <v>50431.507543</v>
       </c>
       <c r="L22" s="1">
-        <v>14.008752</v>
+        <v>14.008751999999999</v>
       </c>
       <c r="M22" s="1">
-        <v>943.257000</v>
+        <v>943.25699999999995</v>
       </c>
       <c r="N22" s="1">
-        <v>-118.050000</v>
+        <v>-118.05</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>50441.768252</v>
+        <v>50441.768252000002</v>
       </c>
       <c r="Q22" s="1">
         <v>14.011602</v>
       </c>
       <c r="R22" s="1">
-        <v>950.002000</v>
+        <v>950.00199999999995</v>
       </c>
       <c r="S22" s="1">
-        <v>-103.149000</v>
+        <v>-103.149</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>50451.927310</v>
+        <v>50451.927309999999</v>
       </c>
       <c r="V22" s="1">
         <v>14.014424</v>
       </c>
       <c r="W22" s="1">
-        <v>956.612000</v>
+        <v>956.61199999999997</v>
       </c>
       <c r="X22" s="1">
-        <v>-89.707100</v>
+        <v>-89.707099999999997</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>50461.820016</v>
+        <v>50461.820015999998</v>
       </c>
       <c r="AA22" s="1">
         <v>14.017172</v>
       </c>
       <c r="AB22" s="1">
-        <v>963.846000</v>
+        <v>963.846</v>
       </c>
       <c r="AC22" s="1">
-        <v>-80.442100</v>
+        <v>-80.442099999999996</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>50472.274236</v>
+        <v>50472.274235999997</v>
       </c>
       <c r="AF22" s="1">
         <v>14.020076</v>
       </c>
       <c r="AG22" s="1">
-        <v>968.736000</v>
+        <v>968.73599999999999</v>
       </c>
       <c r="AH22" s="1">
-        <v>-80.170500</v>
+        <v>-80.170500000000004</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>50482.492805</v>
+        <v>50482.492805000002</v>
       </c>
       <c r="AK22" s="1">
-        <v>14.022915</v>
+        <v>14.022914999999999</v>
       </c>
       <c r="AL22" s="1">
-        <v>976.844000</v>
+        <v>976.84400000000005</v>
       </c>
       <c r="AM22" s="1">
-        <v>-88.079600</v>
+        <v>-88.079599999999999</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>50493.407735</v>
+        <v>50493.407735000001</v>
       </c>
       <c r="AP22" s="1">
         <v>14.025947</v>
       </c>
       <c r="AQ22" s="1">
-        <v>986.087000</v>
+        <v>986.08699999999999</v>
       </c>
       <c r="AR22" s="1">
-        <v>-103.218000</v>
+        <v>-103.218</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>50504.550888</v>
+        <v>50504.550887999998</v>
       </c>
       <c r="AU22" s="1">
         <v>14.029042</v>
       </c>
       <c r="AV22" s="1">
-        <v>997.581000</v>
+        <v>997.58100000000002</v>
       </c>
       <c r="AW22" s="1">
-        <v>-124.981000</v>
+        <v>-124.98099999999999</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>50515.441017</v>
+        <v>50515.441016999997</v>
       </c>
       <c r="AZ22" s="1">
         <v>14.032067</v>
       </c>
       <c r="BA22" s="1">
-        <v>1007.280000</v>
+        <v>1007.28</v>
       </c>
       <c r="BB22" s="1">
-        <v>-143.872000</v>
+        <v>-143.87200000000001</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>50526.429886</v>
+        <v>50526.429885999998</v>
       </c>
       <c r="BE22" s="1">
         <v>14.035119</v>
       </c>
       <c r="BF22" s="1">
-        <v>1053.010000</v>
+        <v>1053.01</v>
       </c>
       <c r="BG22" s="1">
-        <v>-229.317000</v>
+        <v>-229.31700000000001</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>50537.850300</v>
+        <v>50537.850299999998</v>
       </c>
       <c r="BJ22" s="1">
         <v>14.038292</v>
       </c>
       <c r="BK22" s="1">
-        <v>1133.020000</v>
+        <v>1133.02</v>
       </c>
       <c r="BL22" s="1">
-        <v>-366.193000</v>
+        <v>-366.19299999999998</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>50548.696287</v>
+        <v>50548.696286999999</v>
       </c>
       <c r="BO22" s="1">
-        <v>14.041305</v>
+        <v>14.041304999999999</v>
       </c>
       <c r="BP22" s="1">
-        <v>1265.090000</v>
+        <v>1265.0899999999999</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-577.779000</v>
+        <v>-577.779</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>50559.316128</v>
+        <v>50559.316127999999</v>
       </c>
       <c r="BT22" s="1">
         <v>14.044254</v>
       </c>
       <c r="BU22" s="1">
-        <v>1413.540000</v>
+        <v>1413.54</v>
       </c>
       <c r="BV22" s="1">
-        <v>-804.197000</v>
+        <v>-804.197</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>50570.185002</v>
+        <v>50570.185001999998</v>
       </c>
       <c r="BY22" s="1">
         <v>14.047274</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1575.900000</v>
+        <v>1575.9</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1040.380000</v>
+        <v>-1040.3800000000001</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
         <v>50583.058654</v>
       </c>
       <c r="CD22" s="1">
-        <v>14.050850</v>
+        <v>14.050850000000001</v>
       </c>
       <c r="CE22" s="1">
-        <v>1986.640000</v>
+        <v>1986.64</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1591.760000</v>
+        <v>-1591.76</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>50411.517252</v>
+        <v>50411.517251999998</v>
       </c>
       <c r="B23" s="1">
         <v>14.003199</v>
       </c>
       <c r="C23" s="1">
-        <v>904.814000</v>
+        <v>904.81399999999996</v>
       </c>
       <c r="D23" s="1">
-        <v>-193.134000</v>
+        <v>-193.13399999999999</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>50421.658982</v>
+        <v>50421.658982000001</v>
       </c>
       <c r="G23" s="1">
-        <v>14.006016</v>
+        <v>14.006016000000001</v>
       </c>
       <c r="H23" s="1">
-        <v>921.510000</v>
+        <v>921.51</v>
       </c>
       <c r="I23" s="1">
-        <v>-164.261000</v>
+        <v>-164.261</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>50431.894393</v>
+        <v>50431.894393000002</v>
       </c>
       <c r="L23" s="1">
-        <v>14.008860</v>
+        <v>14.00886</v>
       </c>
       <c r="M23" s="1">
-        <v>943.659000</v>
+        <v>943.65899999999999</v>
       </c>
       <c r="N23" s="1">
-        <v>-118.088000</v>
+        <v>-118.08799999999999</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>50442.147195</v>
+        <v>50442.147194999998</v>
       </c>
       <c r="Q23" s="1">
         <v>14.011708</v>
       </c>
       <c r="R23" s="1">
-        <v>950.009000</v>
+        <v>950.00900000000001</v>
       </c>
       <c r="S23" s="1">
-        <v>-103.107000</v>
+        <v>-103.107</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>50452.270077</v>
+        <v>50452.270077000001</v>
       </c>
       <c r="V23" s="1">
         <v>14.014519</v>
       </c>
       <c r="W23" s="1">
-        <v>956.586000</v>
+        <v>956.58600000000001</v>
       </c>
       <c r="X23" s="1">
-        <v>-89.781400</v>
+        <v>-89.781400000000005</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>50462.171184</v>
+        <v>50462.171183999999</v>
       </c>
       <c r="AA23" s="1">
-        <v>14.017270</v>
+        <v>14.01727</v>
       </c>
       <c r="AB23" s="1">
-        <v>963.879000</v>
+        <v>963.87900000000002</v>
       </c>
       <c r="AC23" s="1">
-        <v>-80.393800</v>
+        <v>-80.393799999999999</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>50472.616434</v>
+        <v>50472.616434000003</v>
       </c>
       <c r="AF23" s="1">
-        <v>14.020171</v>
+        <v>14.020170999999999</v>
       </c>
       <c r="AG23" s="1">
-        <v>968.950000</v>
+        <v>968.95</v>
       </c>
       <c r="AH23" s="1">
-        <v>-80.128300</v>
+        <v>-80.128299999999996</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
         <v>50482.914374</v>
       </c>
       <c r="AK23" s="1">
-        <v>14.023032</v>
+        <v>14.023032000000001</v>
       </c>
       <c r="AL23" s="1">
-        <v>976.832000</v>
+        <v>976.83199999999999</v>
       </c>
       <c r="AM23" s="1">
-        <v>-88.085600</v>
+        <v>-88.085599999999999</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>50493.839787</v>
+        <v>50493.839786999997</v>
       </c>
       <c r="AP23" s="1">
-        <v>14.026067</v>
+        <v>14.026066999999999</v>
       </c>
       <c r="AQ23" s="1">
-        <v>986.103000</v>
+        <v>986.10299999999995</v>
       </c>
       <c r="AR23" s="1">
-        <v>-103.242000</v>
+        <v>-103.242</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>50504.861386</v>
+        <v>50504.861385999997</v>
       </c>
       <c r="AU23" s="1">
         <v>14.029128</v>
       </c>
       <c r="AV23" s="1">
-        <v>997.597000</v>
+        <v>997.59699999999998</v>
       </c>
       <c r="AW23" s="1">
-        <v>-124.999000</v>
+        <v>-124.999</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
         <v>50515.799625</v>
       </c>
       <c r="AZ23" s="1">
-        <v>14.032167</v>
+        <v>14.032166999999999</v>
       </c>
       <c r="BA23" s="1">
-        <v>1007.270000</v>
+        <v>1007.27</v>
       </c>
       <c r="BB23" s="1">
-        <v>-143.907000</v>
+        <v>-143.90700000000001</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>50526.789979</v>
+        <v>50526.789979000001</v>
       </c>
       <c r="BE23" s="1">
         <v>14.035219</v>
       </c>
       <c r="BF23" s="1">
-        <v>1052.990000</v>
+        <v>1052.99</v>
       </c>
       <c r="BG23" s="1">
-        <v>-229.342000</v>
+        <v>-229.34200000000001</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>50538.238635</v>
+        <v>50538.238635000002</v>
       </c>
       <c r="BJ23" s="1">
-        <v>14.038400</v>
+        <v>14.038399999999999</v>
       </c>
       <c r="BK23" s="1">
-        <v>1133.000000</v>
+        <v>1133</v>
       </c>
       <c r="BL23" s="1">
-        <v>-366.178000</v>
+        <v>-366.178</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>50549.126813</v>
+        <v>50549.126813000003</v>
       </c>
       <c r="BO23" s="1">
-        <v>14.041424</v>
+        <v>14.041423999999999</v>
       </c>
       <c r="BP23" s="1">
-        <v>1265.040000</v>
+        <v>1265.04</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-577.773000</v>
+        <v>-577.77300000000002</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>50559.740207</v>
+        <v>50559.740207000003</v>
       </c>
       <c r="BT23" s="1">
-        <v>14.044372</v>
+        <v>14.044371999999999</v>
       </c>
       <c r="BU23" s="1">
-        <v>1413.640000</v>
+        <v>1413.64</v>
       </c>
       <c r="BV23" s="1">
-        <v>-804.025000</v>
+        <v>-804.02499999999998</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>50570.602128</v>
+        <v>50570.602127999999</v>
       </c>
       <c r="BY23" s="1">
-        <v>14.047389</v>
+        <v>14.047389000000001</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1576.000000</v>
+        <v>1576</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1040.330000</v>
+        <v>-1040.33</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>50583.597775</v>
+        <v>50583.597775000002</v>
       </c>
       <c r="CD23" s="1">
-        <v>14.050999</v>
+        <v>14.050998999999999</v>
       </c>
       <c r="CE23" s="1">
-        <v>1987.230000</v>
+        <v>1987.23</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1594.050000</v>
+        <v>-1594.05</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>50411.878370</v>
+        <v>50411.878369999999</v>
       </c>
       <c r="B24" s="1">
-        <v>14.003300</v>
+        <v>14.003299999999999</v>
       </c>
       <c r="C24" s="1">
-        <v>904.781000</v>
+        <v>904.78099999999995</v>
       </c>
       <c r="D24" s="1">
-        <v>-193.223000</v>
+        <v>-193.22300000000001</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>50422.037929</v>
+        <v>50422.037928999998</v>
       </c>
       <c r="G24" s="1">
         <v>14.006122</v>
       </c>
       <c r="H24" s="1">
-        <v>921.693000</v>
+        <v>921.69299999999998</v>
       </c>
       <c r="I24" s="1">
-        <v>-164.328000</v>
+        <v>-164.328</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>50432.239609</v>
+        <v>50432.239608999997</v>
       </c>
       <c r="L24" s="1">
         <v>14.008955</v>
       </c>
       <c r="M24" s="1">
-        <v>943.362000</v>
+        <v>943.36199999999997</v>
       </c>
       <c r="N24" s="1">
-        <v>-118.081000</v>
+        <v>-118.081</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
         <v>50442.496906</v>
       </c>
       <c r="Q24" s="1">
-        <v>14.011805</v>
+        <v>14.011805000000001</v>
       </c>
       <c r="R24" s="1">
-        <v>950.039000</v>
+        <v>950.03899999999999</v>
       </c>
       <c r="S24" s="1">
-        <v>-103.134000</v>
+        <v>-103.134</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>50452.617246</v>
+        <v>50452.617246000002</v>
       </c>
       <c r="V24" s="1">
         <v>14.014616</v>
       </c>
       <c r="W24" s="1">
-        <v>956.546000</v>
+        <v>956.54600000000005</v>
       </c>
       <c r="X24" s="1">
-        <v>-89.689700</v>
+        <v>-89.689700000000002</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>50462.585840</v>
+        <v>50462.58584</v>
       </c>
       <c r="AA24" s="1">
-        <v>14.017385</v>
+        <v>14.017385000000001</v>
       </c>
       <c r="AB24" s="1">
-        <v>963.862000</v>
+        <v>963.86199999999997</v>
       </c>
       <c r="AC24" s="1">
-        <v>-80.489400</v>
+        <v>-80.489400000000003</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>50473.035593</v>
+        <v>50473.035593000001</v>
       </c>
       <c r="AF24" s="1">
-        <v>14.020288</v>
+        <v>14.020288000000001</v>
       </c>
       <c r="AG24" s="1">
-        <v>968.857000</v>
+        <v>968.85699999999997</v>
       </c>
       <c r="AH24" s="1">
-        <v>-80.174600</v>
+        <v>-80.174599999999998</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>50483.191141</v>
+        <v>50483.191141000003</v>
       </c>
       <c r="AK24" s="1">
         <v>14.023109</v>
       </c>
       <c r="AL24" s="1">
-        <v>976.837000</v>
+        <v>976.83699999999999</v>
       </c>
       <c r="AM24" s="1">
-        <v>-88.071500</v>
+        <v>-88.0715</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>50494.125445</v>
+        <v>50494.125444999998</v>
       </c>
       <c r="AP24" s="1">
-        <v>14.026146</v>
+        <v>14.026146000000001</v>
       </c>
       <c r="AQ24" s="1">
-        <v>986.087000</v>
+        <v>986.08699999999999</v>
       </c>
       <c r="AR24" s="1">
-        <v>-103.227000</v>
+        <v>-103.227</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>50505.225912</v>
+        <v>50505.225912000002</v>
       </c>
       <c r="AU24" s="1">
-        <v>14.029229</v>
+        <v>14.029229000000001</v>
       </c>
       <c r="AV24" s="1">
-        <v>997.581000</v>
+        <v>997.58100000000002</v>
       </c>
       <c r="AW24" s="1">
-        <v>-124.986000</v>
+        <v>-124.986</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>50516.157286</v>
+        <v>50516.157286000001</v>
       </c>
       <c r="AZ24" s="1">
         <v>14.032266</v>
       </c>
       <c r="BA24" s="1">
-        <v>1007.290000</v>
+        <v>1007.29</v>
       </c>
       <c r="BB24" s="1">
-        <v>-143.888000</v>
+        <v>-143.88800000000001</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>50527.153050</v>
+        <v>50527.153050000001</v>
       </c>
       <c r="BE24" s="1">
-        <v>14.035320</v>
+        <v>14.03532</v>
       </c>
       <c r="BF24" s="1">
-        <v>1053.000000</v>
+        <v>1053</v>
       </c>
       <c r="BG24" s="1">
-        <v>-229.315000</v>
+        <v>-229.315</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>50538.990571</v>
+        <v>50538.990571000002</v>
       </c>
       <c r="BJ24" s="1">
         <v>14.038608</v>
       </c>
       <c r="BK24" s="1">
-        <v>1132.960000</v>
+        <v>1132.96</v>
       </c>
       <c r="BL24" s="1">
-        <v>-366.191000</v>
+        <v>-366.19099999999997</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>50549.512205</v>
+        <v>50549.512204999999</v>
       </c>
       <c r="BO24" s="1">
-        <v>14.041531</v>
+        <v>14.041531000000001</v>
       </c>
       <c r="BP24" s="1">
-        <v>1265.040000</v>
+        <v>1265.04</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-577.764000</v>
+        <v>-577.76400000000001</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
         <v>50560.159667</v>
@@ -6345,559 +6761,560 @@
         <v>14.044489</v>
       </c>
       <c r="BU24" s="1">
-        <v>1413.580000</v>
+        <v>1413.58</v>
       </c>
       <c r="BV24" s="1">
-        <v>-803.899000</v>
+        <v>-803.899</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>50571.022719</v>
+        <v>50571.022719000001</v>
       </c>
       <c r="BY24" s="1">
         <v>14.047506</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1576.000000</v>
+        <v>1576</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1040.410000</v>
+        <v>-1040.4100000000001</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>50584.435022</v>
+        <v>50584.435021999998</v>
       </c>
       <c r="CD24" s="1">
-        <v>14.051232</v>
+        <v>14.051232000000001</v>
       </c>
       <c r="CE24" s="1">
-        <v>1986.270000</v>
+        <v>1986.27</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1592.490000</v>
+        <v>-1592.49</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>50412.225538</v>
+        <v>50412.225537999999</v>
       </c>
       <c r="B25" s="1">
         <v>14.003396</v>
       </c>
       <c r="C25" s="1">
-        <v>904.825000</v>
+        <v>904.82500000000005</v>
       </c>
       <c r="D25" s="1">
-        <v>-193.168000</v>
+        <v>-193.16800000000001</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>50422.384598</v>
+        <v>50422.384597999997</v>
       </c>
       <c r="G25" s="1">
-        <v>14.006218</v>
+        <v>14.006218000000001</v>
       </c>
       <c r="H25" s="1">
-        <v>921.392000</v>
+        <v>921.39200000000005</v>
       </c>
       <c r="I25" s="1">
-        <v>-163.945000</v>
+        <v>-163.94499999999999</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>50432.585814</v>
+        <v>50432.585813999998</v>
       </c>
       <c r="L25" s="1">
-        <v>14.009052</v>
+        <v>14.009052000000001</v>
       </c>
       <c r="M25" s="1">
-        <v>943.366000</v>
+        <v>943.36599999999999</v>
       </c>
       <c r="N25" s="1">
-        <v>-118.168000</v>
+        <v>-118.16800000000001</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>50442.845561</v>
+        <v>50442.845561000002</v>
       </c>
       <c r="Q25" s="1">
-        <v>14.011902</v>
+        <v>14.011901999999999</v>
       </c>
       <c r="R25" s="1">
-        <v>950.034000</v>
+        <v>950.03399999999999</v>
       </c>
       <c r="S25" s="1">
-        <v>-103.119000</v>
+        <v>-103.119</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>50453.043804</v>
+        <v>50453.043804000001</v>
       </c>
       <c r="V25" s="1">
-        <v>14.014734</v>
+        <v>14.014734000000001</v>
       </c>
       <c r="W25" s="1">
-        <v>956.497000</v>
+        <v>956.49699999999996</v>
       </c>
       <c r="X25" s="1">
-        <v>-89.697100</v>
+        <v>-89.697100000000006</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>50462.866079</v>
+        <v>50462.866078999999</v>
       </c>
       <c r="AA25" s="1">
-        <v>14.017463</v>
+        <v>14.017462999999999</v>
       </c>
       <c r="AB25" s="1">
-        <v>963.894000</v>
+        <v>963.89400000000001</v>
       </c>
       <c r="AC25" s="1">
-        <v>-80.416100</v>
+        <v>-80.4161</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>50473.313810</v>
+        <v>50473.31381</v>
       </c>
       <c r="AF25" s="1">
         <v>14.020365</v>
       </c>
       <c r="AG25" s="1">
-        <v>968.662000</v>
+        <v>968.66200000000003</v>
       </c>
       <c r="AH25" s="1">
-        <v>-80.253400</v>
+        <v>-80.253399999999999</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>50483.539864</v>
+        <v>50483.539863999998</v>
       </c>
       <c r="AK25" s="1">
         <v>14.023206</v>
       </c>
       <c r="AL25" s="1">
-        <v>976.825000</v>
+        <v>976.82500000000005</v>
       </c>
       <c r="AM25" s="1">
-        <v>-88.108100</v>
+        <v>-88.108099999999993</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>50494.504914</v>
+        <v>50494.504913999997</v>
       </c>
       <c r="AP25" s="1">
         <v>14.026251</v>
       </c>
       <c r="AQ25" s="1">
-        <v>986.093000</v>
+        <v>986.09299999999996</v>
       </c>
       <c r="AR25" s="1">
-        <v>-103.244000</v>
+        <v>-103.244</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>50505.592952</v>
+        <v>50505.592951999999</v>
       </c>
       <c r="AU25" s="1">
-        <v>14.029331</v>
+        <v>14.029331000000001</v>
       </c>
       <c r="AV25" s="1">
-        <v>997.568000</v>
+        <v>997.56799999999998</v>
       </c>
       <c r="AW25" s="1">
-        <v>-124.984000</v>
+        <v>-124.98399999999999</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>50516.875480</v>
+        <v>50516.875480000002</v>
       </c>
       <c r="AZ25" s="1">
         <v>14.032465</v>
       </c>
       <c r="BA25" s="1">
-        <v>1007.280000</v>
+        <v>1007.28</v>
       </c>
       <c r="BB25" s="1">
-        <v>-143.917000</v>
+        <v>-143.917</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>50527.875226</v>
+        <v>50527.875225999996</v>
       </c>
       <c r="BE25" s="1">
-        <v>14.035521</v>
+        <v>14.035520999999999</v>
       </c>
       <c r="BF25" s="1">
-        <v>1053.000000</v>
+        <v>1053</v>
       </c>
       <c r="BG25" s="1">
-        <v>-229.303000</v>
+        <v>-229.303</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>50539.391339</v>
+        <v>50539.391339000002</v>
       </c>
       <c r="BJ25" s="1">
-        <v>14.038720</v>
+        <v>14.03872</v>
       </c>
       <c r="BK25" s="1">
-        <v>1133.000000</v>
+        <v>1133</v>
       </c>
       <c r="BL25" s="1">
-        <v>-366.184000</v>
+        <v>-366.18400000000003</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>50549.933339</v>
+        <v>50549.933339000003</v>
       </c>
       <c r="BO25" s="1">
         <v>14.041648</v>
       </c>
       <c r="BP25" s="1">
-        <v>1265.050000</v>
+        <v>1265.05</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-577.740000</v>
+        <v>-577.74</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>50560.586879</v>
+        <v>50560.586879000002</v>
       </c>
       <c r="BT25" s="1">
-        <v>14.044607</v>
+        <v>14.044606999999999</v>
       </c>
       <c r="BU25" s="1">
-        <v>1413.490000</v>
+        <v>1413.49</v>
       </c>
       <c r="BV25" s="1">
-        <v>-803.760000</v>
+        <v>-803.76</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
         <v>50571.771663</v>
       </c>
       <c r="BY25" s="1">
-        <v>14.047714</v>
+        <v>14.047713999999999</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1575.960000</v>
+        <v>1575.96</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1040.140000</v>
+        <v>-1040.1400000000001</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>50584.676590</v>
+        <v>50584.676590000003</v>
       </c>
       <c r="CD25" s="1">
         <v>14.051299</v>
       </c>
       <c r="CE25" s="1">
-        <v>1985.830000</v>
+        <v>1985.83</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1592.510000</v>
+        <v>-1592.51</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>50412.563841</v>
+        <v>50412.563841000003</v>
       </c>
       <c r="B26" s="1">
-        <v>14.003490</v>
+        <v>14.003489999999999</v>
       </c>
       <c r="C26" s="1">
-        <v>904.980000</v>
+        <v>904.98</v>
       </c>
       <c r="D26" s="1">
-        <v>-193.160000</v>
+        <v>-193.16</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>50422.727828</v>
+        <v>50422.727828000003</v>
       </c>
       <c r="G26" s="1">
         <v>14.006313</v>
       </c>
       <c r="H26" s="1">
-        <v>921.141000</v>
+        <v>921.14099999999996</v>
       </c>
       <c r="I26" s="1">
-        <v>-164.016000</v>
+        <v>-164.01599999999999</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>50433.002952</v>
+        <v>50433.002952000003</v>
       </c>
       <c r="L26" s="1">
         <v>14.009167</v>
       </c>
       <c r="M26" s="1">
-        <v>943.530000</v>
+        <v>943.53</v>
       </c>
       <c r="N26" s="1">
-        <v>-118.078000</v>
+        <v>-118.078</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>50443.273145</v>
+        <v>50443.273144999999</v>
       </c>
       <c r="Q26" s="1">
-        <v>14.012020</v>
+        <v>14.01202</v>
       </c>
       <c r="R26" s="1">
-        <v>950.028000</v>
+        <v>950.02800000000002</v>
       </c>
       <c r="S26" s="1">
-        <v>-103.143000</v>
+        <v>-103.143</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>50453.321067</v>
+        <v>50453.321066999997</v>
       </c>
       <c r="V26" s="1">
         <v>14.014811</v>
       </c>
       <c r="W26" s="1">
-        <v>956.655000</v>
+        <v>956.65499999999997</v>
       </c>
       <c r="X26" s="1">
-        <v>-89.712000</v>
+        <v>-89.712000000000003</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>50463.211827</v>
+        <v>50463.211826999999</v>
       </c>
       <c r="AA26" s="1">
         <v>14.017559</v>
       </c>
       <c r="AB26" s="1">
-        <v>963.918000</v>
+        <v>963.91800000000001</v>
       </c>
       <c r="AC26" s="1">
-        <v>-80.417300</v>
+        <v>-80.417299999999997</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
         <v>50473.658529</v>
       </c>
       <c r="AF26" s="1">
-        <v>14.020461</v>
+        <v>14.020460999999999</v>
       </c>
       <c r="AG26" s="1">
-        <v>968.862000</v>
+        <v>968.86199999999997</v>
       </c>
       <c r="AH26" s="1">
-        <v>-80.080200</v>
+        <v>-80.080200000000005</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>50483.890004</v>
+        <v>50483.890004000001</v>
       </c>
       <c r="AK26" s="1">
         <v>14.023303</v>
       </c>
       <c r="AL26" s="1">
-        <v>976.827000</v>
+        <v>976.827</v>
       </c>
       <c r="AM26" s="1">
-        <v>-88.075400</v>
+        <v>-88.075400000000002</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>50495.184901</v>
+        <v>50495.184901000001</v>
       </c>
       <c r="AP26" s="1">
-        <v>14.026440</v>
+        <v>14.026439999999999</v>
       </c>
       <c r="AQ26" s="1">
-        <v>986.097000</v>
+        <v>986.09699999999998</v>
       </c>
       <c r="AR26" s="1">
-        <v>-103.225000</v>
+        <v>-103.22499999999999</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
         <v>50506.320086</v>
       </c>
       <c r="AU26" s="1">
-        <v>14.029533</v>
+        <v>14.029533000000001</v>
       </c>
       <c r="AV26" s="1">
-        <v>997.564000</v>
+        <v>997.56399999999996</v>
       </c>
       <c r="AW26" s="1">
-        <v>-125.008000</v>
+        <v>-125.008</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>50517.235047</v>
+        <v>50517.235047000002</v>
       </c>
       <c r="AZ26" s="1">
         <v>14.032565</v>
       </c>
       <c r="BA26" s="1">
-        <v>1007.290000</v>
+        <v>1007.29</v>
       </c>
       <c r="BB26" s="1">
-        <v>-143.911000</v>
+        <v>-143.911</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>50528.234824</v>
+        <v>50528.234823999999</v>
       </c>
       <c r="BE26" s="1">
-        <v>14.035621</v>
+        <v>14.035621000000001</v>
       </c>
       <c r="BF26" s="1">
-        <v>1053.000000</v>
+        <v>1053</v>
       </c>
       <c r="BG26" s="1">
-        <v>-229.317000</v>
+        <v>-229.31700000000001</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>50539.768793</v>
+        <v>50539.768793000003</v>
       </c>
       <c r="BJ26" s="1">
-        <v>14.038825</v>
+        <v>14.038824999999999</v>
       </c>
       <c r="BK26" s="1">
-        <v>1133.020000</v>
+        <v>1133.02</v>
       </c>
       <c r="BL26" s="1">
-        <v>-366.185000</v>
+        <v>-366.185</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>50550.655514</v>
+        <v>50550.655513999998</v>
       </c>
       <c r="BO26" s="1">
-        <v>14.041849</v>
+        <v>14.041848999999999</v>
       </c>
       <c r="BP26" s="1">
-        <v>1265.040000</v>
+        <v>1265.04</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-577.753000</v>
+        <v>-577.75300000000004</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>50561.302109</v>
+        <v>50561.302108999997</v>
       </c>
       <c r="BT26" s="1">
-        <v>14.044806</v>
+        <v>14.044805999999999</v>
       </c>
       <c r="BU26" s="1">
-        <v>1413.450000</v>
+        <v>1413.45</v>
       </c>
       <c r="BV26" s="1">
-        <v>-803.685000</v>
+        <v>-803.68499999999995</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>50571.898671</v>
+        <v>50571.898671000003</v>
       </c>
       <c r="BY26" s="1">
-        <v>14.047750</v>
+        <v>14.047750000000001</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1575.810000</v>
+        <v>1575.81</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1040.310000</v>
+        <v>-1040.31</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>50585.195885</v>
+        <v>50585.195885000001</v>
       </c>
       <c r="CD26" s="1">
-        <v>14.051443</v>
+        <v>14.051443000000001</v>
       </c>
       <c r="CE26" s="1">
-        <v>1987.130000</v>
+        <v>1987.13</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1593.870000</v>
+        <v>-1593.87</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>